--- a/Grid_5x5/Solutions/Solution_NDP_S068/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S068/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
@@ -2648,7 +2648,7 @@
         <v>166</v>
       </c>
       <c r="C39" s="38">
-        <v>20.5732256486822</v>
+        <v>20.573225648682207</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>129</v>
@@ -2668,7 +2668,7 @@
         <v>200</v>
       </c>
       <c r="C40" s="39">
-        <v>21.956958393080519</v>
+        <v>21.956958393080523</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>129</v>
@@ -2688,7 +2688,7 @@
         <v>201</v>
       </c>
       <c r="C41" s="39">
-        <v>0.38035085150618941</v>
+        <v>0.38035085150618947</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>42</v>
@@ -2709,7 +2709,7 @@
         <v>202</v>
       </c>
       <c r="C42" s="39">
-        <v>1.7621142857142849</v>
+        <v>1.7621142857142862</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>42</v>
@@ -2729,7 +2729,7 @@
         <v>204</v>
       </c>
       <c r="C43" s="40">
-        <v>2.5646571428571425</v>
+        <v>2.5646571428571421</v>
       </c>
       <c r="D43" s="67" t="s">
         <v>42</v>
@@ -7842,16 +7842,16 @@
         <v>70</v>
       </c>
       <c r="K14" s="72">
-        <v>125.17400000000001</v>
+        <v>125.17400000000002</v>
       </c>
       <c r="L14" s="72">
-        <v>67.668999999999983</v>
+        <v>67.668999999999997</v>
       </c>
       <c r="M14" s="72">
-        <v>52.147999999999996</v>
+        <v>52.148000000000003</v>
       </c>
       <c r="N14" s="72">
-        <v>192.84299999999999</v>
+        <v>192.84300000000002</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -7886,13 +7886,13 @@
         <v>70</v>
       </c>
       <c r="K15" s="72">
-        <v>32.064</v>
+        <v>32.064000000000007</v>
       </c>
       <c r="L15" s="72">
         <v>66.920999999999992</v>
       </c>
       <c r="M15" s="72">
-        <v>125.922</v>
+        <v>125.92200000000001</v>
       </c>
       <c r="N15" s="72">
         <v>98.984999999999999</v>
@@ -9266,7 +9266,7 @@
         <v>70</v>
       </c>
       <c r="K48" s="72">
-        <v>122.43900000000001</v>
+        <v>122.43899999999999</v>
       </c>
       <c r="L48" s="72">
         <v>0</v>
@@ -9275,7 +9275,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="72">
-        <v>122.43900000000001</v>
+        <v>122.43899999999999</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -9357,13 +9357,13 @@
         <v>69.078000000000003</v>
       </c>
       <c r="L50" s="72">
-        <v>53.652000000000015</v>
+        <v>53.652000000000001</v>
       </c>
       <c r="M50" s="72">
         <v>77.435999999999993</v>
       </c>
       <c r="N50" s="72">
-        <v>122.73000000000002</v>
+        <v>122.73</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -10822,10 +10822,10 @@
         <v>70</v>
       </c>
       <c r="K85" s="72">
-        <v>19.920000000000002</v>
+        <v>19.919999999999998</v>
       </c>
       <c r="L85" s="72">
-        <v>13.379999999999995</v>
+        <v>13.379999999999999</v>
       </c>
       <c r="M85" s="72">
         <v>3.2750000000000004</v>
@@ -10910,7 +10910,7 @@
         <v>70</v>
       </c>
       <c r="K87" s="72">
-        <v>25.684999999999999</v>
+        <v>25.685000000000002</v>
       </c>
       <c r="L87" s="72">
         <v>88.582999999999998</v>
@@ -12290,7 +12290,7 @@
         <v>70</v>
       </c>
       <c r="K120" s="72">
-        <v>51.301000000000002</v>
+        <v>51.300999999999995</v>
       </c>
       <c r="L120" s="72">
         <v>0</v>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="N120" s="72">
-        <v>51.301000000000002</v>
+        <v>51.300999999999995</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -12334,16 +12334,16 @@
         <v>70</v>
       </c>
       <c r="K121" s="72">
-        <v>39.392000000000003</v>
+        <v>39.391999999999996</v>
       </c>
       <c r="L121" s="72">
-        <v>28.878999999999984</v>
+        <v>28.879000000000005</v>
       </c>
       <c r="M121" s="72">
-        <v>22.421999999999997</v>
+        <v>22.422000000000001</v>
       </c>
       <c r="N121" s="72">
-        <v>68.270999999999987</v>
+        <v>68.271000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -12381,13 +12381,13 @@
         <v>13.27</v>
       </c>
       <c r="L122" s="72">
-        <v>38.121000000000009</v>
+        <v>38.120999999999995</v>
       </c>
       <c r="M122" s="72">
-        <v>30.150000000000006</v>
+        <v>30.15</v>
       </c>
       <c r="N122" s="72">
-        <v>51.391000000000005</v>
+        <v>51.390999999999991</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -12466,7 +12466,7 @@
         <v>70</v>
       </c>
       <c r="K124" s="72">
-        <v>13.995999999999999</v>
+        <v>13.996</v>
       </c>
       <c r="L124" s="72">
         <v>73.825000000000003</v>
@@ -13638,16 +13638,16 @@
         <v>70</v>
       </c>
       <c r="K152" s="72">
-        <v>59.140999999999998</v>
+        <v>59.141000000000005</v>
       </c>
       <c r="L152" s="72">
-        <v>328.245</v>
+        <v>328.24500000000006</v>
       </c>
       <c r="M152" s="72">
-        <v>72.872</v>
+        <v>72.872000000000014</v>
       </c>
       <c r="N152" s="72">
-        <v>387.38600000000002</v>
+        <v>387.38600000000008</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
@@ -13685,13 +13685,13 @@
         <v>113.828</v>
       </c>
       <c r="L153" s="72">
-        <v>183.37300000000002</v>
+        <v>183.37299999999996</v>
       </c>
       <c r="M153" s="72">
-        <v>204.01300000000003</v>
+        <v>204.01300000000001</v>
       </c>
       <c r="N153" s="72">
-        <v>297.20100000000002</v>
+        <v>297.20099999999996</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
@@ -13732,7 +13732,7 @@
         <v>124.41500000000002</v>
       </c>
       <c r="M154" s="72">
-        <v>172.78600000000003</v>
+        <v>172.786</v>
       </c>
       <c r="N154" s="72">
         <v>194.29500000000002</v>
@@ -13802,7 +13802,7 @@
         <v>70</v>
       </c>
       <c r="K156" s="72">
-        <v>179.95800000000003</v>
+        <v>179.958</v>
       </c>
       <c r="L156" s="72">
         <v>0</v>
@@ -13811,7 +13811,7 @@
         <v>0</v>
       </c>
       <c r="N156" s="72">
-        <v>179.95800000000003</v>
+        <v>179.958</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
@@ -15358,16 +15358,16 @@
         <v>70</v>
       </c>
       <c r="K193" s="72">
-        <v>148.74</v>
+        <v>148.73999999999998</v>
       </c>
       <c r="L193" s="72">
-        <v>121.78100000000001</v>
+        <v>121.78099999999998</v>
       </c>
       <c r="M193" s="72">
         <v>23.931000000000001</v>
       </c>
       <c r="N193" s="72">
-        <v>270.52100000000002</v>
+        <v>270.52099999999996</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
@@ -15402,13 +15402,13 @@
         <v>70</v>
       </c>
       <c r="K194" s="72">
-        <v>50.628</v>
+        <v>50.627999999999993</v>
       </c>
       <c r="L194" s="72">
-        <v>45.694000000000003</v>
+        <v>45.69400000000001</v>
       </c>
       <c r="M194" s="72">
-        <v>224.82699999999997</v>
+        <v>224.827</v>
       </c>
       <c r="N194" s="72">
         <v>96.322000000000003</v>
@@ -16797,7 +16797,7 @@
         <v>0</v>
       </c>
       <c r="M227" s="72">
-        <v>189.99300000000005</v>
+        <v>189.99299999999999</v>
       </c>
       <c r="N227" s="72">
         <v>0</v>
@@ -16879,7 +16879,7 @@
         <v>15.173999999999999</v>
       </c>
       <c r="N229" s="72">
-        <v>186.57300000000004</v>
+        <v>186.57300000000001</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
@@ -16958,10 +16958,10 @@
         <v>70</v>
       </c>
       <c r="K231" s="72">
-        <v>41.082000000000008</v>
+        <v>41.082000000000001</v>
       </c>
       <c r="L231" s="72">
-        <v>118.57599999999998</v>
+        <v>118.57599999999999</v>
       </c>
       <c r="M231" s="72">
         <v>6.5449999999999999</v>
@@ -18388,7 +18388,7 @@
         <v>21.535999999999998</v>
       </c>
       <c r="M265" s="72">
-        <v>16.255000000000003</v>
+        <v>16.254999999999999</v>
       </c>
       <c r="N265" s="72">
         <v>42.948999999999998</v>
@@ -18432,7 +18432,7 @@
         <v>29.649000000000001</v>
       </c>
       <c r="M266" s="72">
-        <v>13.299999999999999</v>
+        <v>13.3</v>
       </c>
       <c r="N266" s="72">
         <v>45.774000000000001</v>
@@ -18473,13 +18473,13 @@
         <v>5.1029999999999998</v>
       </c>
       <c r="L267" s="72">
-        <v>23.172000000000004</v>
+        <v>23.171999999999997</v>
       </c>
       <c r="M267" s="72">
-        <v>22.602000000000004</v>
+        <v>22.601999999999997</v>
       </c>
       <c r="N267" s="72">
-        <v>28.275000000000002</v>
+        <v>28.274999999999999</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.25">
@@ -19897,13 +19897,13 @@
         <v>77.182000000000002</v>
       </c>
       <c r="L301" s="72">
-        <v>72.570000000000007</v>
+        <v>72.569999999999979</v>
       </c>
       <c r="M301" s="72">
         <v>26.271000000000001</v>
       </c>
       <c r="N301" s="72">
-        <v>149.75200000000001</v>
+        <v>149.75199999999998</v>
       </c>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.25">
@@ -19941,13 +19941,13 @@
         <v>41.462000000000003</v>
       </c>
       <c r="L302" s="72">
-        <v>22.503</v>
+        <v>22.502999999999993</v>
       </c>
       <c r="M302" s="72">
-        <v>127.249</v>
+        <v>127.24900000000001</v>
       </c>
       <c r="N302" s="72">
-        <v>63.965000000000003</v>
+        <v>63.964999999999996</v>
       </c>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.25">
@@ -19982,10 +19982,10 @@
         <v>70</v>
       </c>
       <c r="K303" s="72">
-        <v>44.612000000000009</v>
+        <v>44.611999999999995</v>
       </c>
       <c r="L303" s="72">
-        <v>38.686999999999998</v>
+        <v>38.687000000000012</v>
       </c>
       <c r="M303" s="72">
         <v>25.277999999999999</v>
@@ -20032,7 +20032,7 @@
         <v>4.1310000000000002</v>
       </c>
       <c r="M304" s="72">
-        <v>79.167999999999992</v>
+        <v>79.168000000000006</v>
       </c>
       <c r="N304" s="72">
         <v>37.613</v>
@@ -21409,13 +21409,13 @@
         <v>82.917000000000002</v>
       </c>
       <c r="L337" s="72">
-        <v>11.407000000000011</v>
+        <v>11.406999999999996</v>
       </c>
       <c r="M337" s="72">
         <v>35.668000000000006</v>
       </c>
       <c r="N337" s="72">
-        <v>94.324000000000012</v>
+        <v>94.323999999999998</v>
       </c>
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.25">
@@ -21453,13 +21453,13 @@
         <v>46.234000000000002</v>
       </c>
       <c r="L338" s="72">
-        <v>59.310000000000009</v>
+        <v>59.309999999999995</v>
       </c>
       <c r="M338" s="72">
         <v>35.013999999999996</v>
       </c>
       <c r="N338" s="72">
-        <v>105.54400000000001</v>
+        <v>105.544</v>
       </c>
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.25">
@@ -21497,13 +21497,13 @@
         <v>34.960999999999999</v>
       </c>
       <c r="L339" s="72">
-        <v>58.233000000000004</v>
+        <v>58.23299999999999</v>
       </c>
       <c r="M339" s="72">
         <v>47.311000000000007</v>
       </c>
       <c r="N339" s="72">
-        <v>93.194000000000003</v>
+        <v>93.193999999999988</v>
       </c>
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.25">
@@ -21538,16 +21538,16 @@
         <v>70</v>
       </c>
       <c r="K340" s="72">
-        <v>22.230000000000004</v>
+        <v>22.229999999999997</v>
       </c>
       <c r="L340" s="72">
-        <v>53.313999999999993</v>
+        <v>53.314000000000014</v>
       </c>
       <c r="M340" s="72">
         <v>39.880000000000003</v>
       </c>
       <c r="N340" s="72">
-        <v>75.543999999999997</v>
+        <v>75.544000000000011</v>
       </c>
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.25">
@@ -22713,13 +22713,13 @@
         <v>40.361000000000004</v>
       </c>
       <c r="L368" s="72">
-        <v>124.96500000000002</v>
+        <v>124.96499999999996</v>
       </c>
       <c r="M368" s="72">
         <v>79.376999999999995</v>
       </c>
       <c r="N368" s="72">
-        <v>165.32600000000002</v>
+        <v>165.32599999999996</v>
       </c>
     </row>
     <row r="369" spans="1:14" x14ac:dyDescent="0.25">
@@ -22760,7 +22760,7 @@
         <v>63.964999999999989</v>
       </c>
       <c r="M369" s="72">
-        <v>101.361</v>
+        <v>101.36100000000002</v>
       </c>
       <c r="N369" s="72">
         <v>78.069999999999993</v>
@@ -22798,16 +22798,16 @@
         <v>70</v>
       </c>
       <c r="K370" s="72">
-        <v>26.516000000000002</v>
+        <v>26.515999999999998</v>
       </c>
       <c r="L370" s="72">
-        <v>44.721000000000004</v>
+        <v>44.720999999999997</v>
       </c>
       <c r="M370" s="72">
         <v>33.349000000000004</v>
       </c>
       <c r="N370" s="72">
-        <v>71.237000000000009</v>
+        <v>71.236999999999995</v>
       </c>
     </row>
     <row r="371" spans="1:14" x14ac:dyDescent="0.25">
@@ -22845,7 +22845,7 @@
         <v>0</v>
       </c>
       <c r="M371" s="72">
-        <v>71.237000000000009</v>
+        <v>71.236999999999995</v>
       </c>
       <c r="N371" s="72">
         <v>0</v>
@@ -22874,7 +22874,7 @@
         <v>70</v>
       </c>
       <c r="K372" s="72">
-        <v>147.20299999999997</v>
+        <v>147.203</v>
       </c>
       <c r="L372" s="72">
         <v>0</v>
@@ -22883,7 +22883,7 @@
         <v>0</v>
       </c>
       <c r="N372" s="72">
-        <v>147.20299999999997</v>
+        <v>147.203</v>
       </c>
     </row>
     <row r="373" spans="1:14" x14ac:dyDescent="0.25">
@@ -22918,16 +22918,16 @@
         <v>70</v>
       </c>
       <c r="K373" s="72">
-        <v>95.876999999999981</v>
+        <v>95.876999999999995</v>
       </c>
       <c r="L373" s="72">
-        <v>55.853000000000009</v>
+        <v>55.853000000000023</v>
       </c>
       <c r="M373" s="72">
         <v>91.350000000000009</v>
       </c>
       <c r="N373" s="72">
-        <v>151.72999999999999</v>
+        <v>151.73000000000002</v>
       </c>
     </row>
     <row r="374" spans="1:14" x14ac:dyDescent="0.25">
@@ -24386,7 +24386,7 @@
         <v>70</v>
       </c>
       <c r="K408" s="72">
-        <v>32.425999999999995</v>
+        <v>32.426000000000002</v>
       </c>
       <c r="L408" s="72">
         <v>0</v>
@@ -24395,7 +24395,7 @@
         <v>0</v>
       </c>
       <c r="N408" s="72">
-        <v>32.425999999999995</v>
+        <v>32.426000000000002</v>
       </c>
     </row>
     <row r="409" spans="1:14" x14ac:dyDescent="0.25">
@@ -24430,10 +24430,10 @@
         <v>70</v>
       </c>
       <c r="K409" s="72">
-        <v>29.893999999999998</v>
+        <v>29.894000000000005</v>
       </c>
       <c r="L409" s="72">
-        <v>29.268999999999998</v>
+        <v>29.268999999999991</v>
       </c>
       <c r="M409" s="72">
         <v>3.157</v>
@@ -24474,10 +24474,10 @@
         <v>70</v>
       </c>
       <c r="K410" s="72">
-        <v>108.53400000000001</v>
+        <v>108.53399999999999</v>
       </c>
       <c r="L410" s="72">
-        <v>50.263999999999996</v>
+        <v>50.26400000000001</v>
       </c>
       <c r="M410" s="72">
         <v>8.8990000000000009</v>
@@ -24521,13 +24521,13 @@
         <v>86.311000000000007</v>
       </c>
       <c r="L411" s="72">
-        <v>124.92599999999996</v>
+        <v>124.92600000000002</v>
       </c>
       <c r="M411" s="72">
         <v>33.872</v>
       </c>
       <c r="N411" s="72">
-        <v>211.23699999999997</v>
+        <v>211.23700000000002</v>
       </c>
     </row>
     <row r="412" spans="1:14" x14ac:dyDescent="0.25">
@@ -24568,7 +24568,7 @@
         <v>13.986000000000004</v>
       </c>
       <c r="M412" s="72">
-        <v>197.25099999999998</v>
+        <v>197.25100000000003</v>
       </c>
       <c r="N412" s="72">
         <v>32.971000000000004</v>
@@ -25781,13 +25781,13 @@
         <v>34.17</v>
       </c>
       <c r="L441" s="72">
-        <v>124.06500000000001</v>
+        <v>124.06499999999998</v>
       </c>
       <c r="M441" s="72">
         <v>16.878999999999998</v>
       </c>
       <c r="N441" s="72">
-        <v>158.23500000000001</v>
+        <v>158.23499999999999</v>
       </c>
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.25">
@@ -25825,13 +25825,13 @@
         <v>98.138000000000005</v>
       </c>
       <c r="L442" s="72">
-        <v>104.11199999999999</v>
+        <v>104.11200000000002</v>
       </c>
       <c r="M442" s="72">
-        <v>54.12299999999999</v>
+        <v>54.123000000000005</v>
       </c>
       <c r="N442" s="72">
-        <v>202.25</v>
+        <v>202.25000000000003</v>
       </c>
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.25">
@@ -25869,7 +25869,7 @@
         <v>0</v>
       </c>
       <c r="M443" s="72">
-        <v>202.25</v>
+        <v>202.25000000000003</v>
       </c>
       <c r="N443" s="72">
         <v>0</v>
@@ -25898,7 +25898,7 @@
         <v>70</v>
       </c>
       <c r="K444" s="72">
-        <v>83.504000000000005</v>
+        <v>83.503999999999991</v>
       </c>
       <c r="L444" s="72">
         <v>0</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="N444" s="72">
-        <v>83.504000000000005</v>
+        <v>83.503999999999991</v>
       </c>
     </row>
     <row r="445" spans="1:14" x14ac:dyDescent="0.25">
@@ -25992,7 +25992,7 @@
         <v>71.38900000000001</v>
       </c>
       <c r="M446" s="72">
-        <v>20.327999999999996</v>
+        <v>20.328000000000003</v>
       </c>
       <c r="N446" s="72">
         <v>101.971</v>
@@ -27545,13 +27545,13 @@
         <v>58.695999999999998</v>
       </c>
       <c r="L483" s="72">
-        <v>61.72</v>
+        <v>61.720000000000013</v>
       </c>
       <c r="M483" s="72">
         <v>28.462</v>
       </c>
       <c r="N483" s="72">
-        <v>120.416</v>
+        <v>120.41600000000001</v>
       </c>
     </row>
     <row r="484" spans="1:14" x14ac:dyDescent="0.25">
@@ -27592,7 +27592,7 @@
         <v>82.885000000000005</v>
       </c>
       <c r="M484" s="72">
-        <v>37.530999999999999</v>
+        <v>37.530999999999992</v>
       </c>
       <c r="N484" s="72">
         <v>95.691000000000003</v>
@@ -28714,16 +28714,16 @@
         <v>70</v>
       </c>
       <c r="K511" s="72">
-        <v>61.713999999999999</v>
+        <v>61.714000000000013</v>
       </c>
       <c r="L511" s="72">
-        <v>123.166</v>
+        <v>123.16600000000001</v>
       </c>
       <c r="M511" s="72">
-        <v>29.943999999999999</v>
+        <v>29.944000000000003</v>
       </c>
       <c r="N511" s="72">
-        <v>184.88</v>
+        <v>184.88000000000002</v>
       </c>
     </row>
     <row r="512" spans="1:14" x14ac:dyDescent="0.25">
@@ -28758,13 +28758,13 @@
         <v>70</v>
       </c>
       <c r="K512" s="72">
-        <v>57.221999999999994</v>
+        <v>57.222000000000008</v>
       </c>
       <c r="L512" s="72">
-        <v>66.388000000000005</v>
+        <v>66.387999999999991</v>
       </c>
       <c r="M512" s="72">
-        <v>118.492</v>
+        <v>118.49199999999999</v>
       </c>
       <c r="N512" s="72">
         <v>123.61</v>
@@ -28802,7 +28802,7 @@
         <v>70</v>
       </c>
       <c r="K513" s="72">
-        <v>43.160000000000004</v>
+        <v>43.16</v>
       </c>
       <c r="L513" s="72">
         <v>104.756</v>
@@ -30434,7 +30434,7 @@
         <v>70</v>
       </c>
       <c r="K552" s="72">
-        <v>140.62899999999999</v>
+        <v>140.62900000000002</v>
       </c>
       <c r="L552" s="72">
         <v>0</v>
@@ -30443,7 +30443,7 @@
         <v>0</v>
       </c>
       <c r="N552" s="72">
-        <v>140.62899999999999</v>
+        <v>140.62900000000002</v>
       </c>
     </row>
     <row r="553" spans="1:14" x14ac:dyDescent="0.25">
@@ -30528,7 +30528,7 @@
         <v>75.187000000000012</v>
       </c>
       <c r="M554" s="72">
-        <v>39.619000000000007</v>
+        <v>39.619</v>
       </c>
       <c r="N554" s="72">
         <v>86.775000000000006</v>
@@ -30566,10 +30566,10 @@
         <v>70</v>
       </c>
       <c r="K555" s="72">
-        <v>31.651</v>
+        <v>31.651000000000003</v>
       </c>
       <c r="L555" s="72">
-        <v>38.341999999999999</v>
+        <v>38.341999999999992</v>
       </c>
       <c r="M555" s="72">
         <v>48.433</v>
@@ -30613,13 +30613,13 @@
         <v>42.603999999999999</v>
       </c>
       <c r="L556" s="72">
-        <v>40.731000000000009</v>
+        <v>40.730999999999995</v>
       </c>
       <c r="M556" s="72">
-        <v>29.262</v>
+        <v>29.262000000000004</v>
       </c>
       <c r="N556" s="72">
-        <v>83.335000000000008</v>
+        <v>83.334999999999994</v>
       </c>
     </row>
     <row r="557" spans="1:14" x14ac:dyDescent="0.25">
@@ -30657,7 +30657,7 @@
         <v>0</v>
       </c>
       <c r="M557" s="72">
-        <v>83.335000000000008</v>
+        <v>83.334999999999994</v>
       </c>
       <c r="N557" s="72">
         <v>0</v>
@@ -31993,13 +31993,13 @@
         <v>103.65600000000001</v>
       </c>
       <c r="L589" s="72">
-        <v>21.156000000000006</v>
+        <v>21.155999999999977</v>
       </c>
       <c r="M589" s="72">
         <v>3.98</v>
       </c>
       <c r="N589" s="72">
-        <v>124.81200000000001</v>
+        <v>124.81199999999998</v>
       </c>
     </row>
     <row r="590" spans="1:14" x14ac:dyDescent="0.25">
@@ -32128,7 +32128,7 @@
         <v>70.836000000000013</v>
       </c>
       <c r="M592" s="72">
-        <v>104.20700000000001</v>
+        <v>104.20699999999999</v>
       </c>
       <c r="N592" s="72">
         <v>116.09200000000001</v>
@@ -33297,13 +33297,13 @@
         <v>229.18299999999999</v>
       </c>
       <c r="L620" s="72">
-        <v>99.149000000000001</v>
+        <v>99.149000000000058</v>
       </c>
       <c r="M620" s="72">
         <v>16.734999999999999</v>
       </c>
       <c r="N620" s="72">
-        <v>328.33199999999999</v>
+        <v>328.33200000000005</v>
       </c>
     </row>
     <row r="621" spans="1:14" x14ac:dyDescent="0.25">
@@ -33385,13 +33385,13 @@
         <v>19.161999999999999</v>
       </c>
       <c r="L622" s="72">
-        <v>184.71600000000001</v>
+        <v>184.71599999999998</v>
       </c>
       <c r="M622" s="72">
-        <v>118.56200000000001</v>
+        <v>118.56199999999998</v>
       </c>
       <c r="N622" s="72">
-        <v>203.87800000000001</v>
+        <v>203.87799999999999</v>
       </c>
     </row>
     <row r="623" spans="1:14" x14ac:dyDescent="0.25">
@@ -33429,7 +33429,7 @@
         <v>0</v>
       </c>
       <c r="M623" s="72">
-        <v>203.87800000000001</v>
+        <v>203.87799999999999</v>
       </c>
       <c r="N623" s="72">
         <v>0</v>
@@ -33502,10 +33502,10 @@
         <v>70</v>
       </c>
       <c r="K625" s="72">
-        <v>59.530999999999999</v>
+        <v>59.531000000000006</v>
       </c>
       <c r="L625" s="72">
-        <v>17.963000000000001</v>
+        <v>17.962999999999994</v>
       </c>
       <c r="M625" s="72">
         <v>1.147</v>
@@ -34970,7 +34970,7 @@
         <v>70</v>
       </c>
       <c r="K660" s="72">
-        <v>163.77700000000004</v>
+        <v>163.77699999999999</v>
       </c>
       <c r="L660" s="72">
         <v>0</v>
@@ -34979,7 +34979,7 @@
         <v>0</v>
       </c>
       <c r="N660" s="72">
-        <v>163.77700000000004</v>
+        <v>163.77699999999999</v>
       </c>
     </row>
     <row r="661" spans="1:14" x14ac:dyDescent="0.25">
@@ -35017,13 +35017,13 @@
         <v>28.811</v>
       </c>
       <c r="L661" s="72">
-        <v>150.20200000000003</v>
+        <v>150.202</v>
       </c>
       <c r="M661" s="72">
         <v>13.575000000000001</v>
       </c>
       <c r="N661" s="72">
-        <v>179.01300000000003</v>
+        <v>179.01300000000001</v>
       </c>
     </row>
     <row r="662" spans="1:14" x14ac:dyDescent="0.25">
@@ -35061,13 +35061,13 @@
         <v>37.451000000000001</v>
       </c>
       <c r="L662" s="72">
-        <v>157.86900000000003</v>
+        <v>157.869</v>
       </c>
       <c r="M662" s="72">
-        <v>21.144000000000002</v>
+        <v>21.143999999999998</v>
       </c>
       <c r="N662" s="72">
-        <v>195.32000000000002</v>
+        <v>195.32</v>
       </c>
     </row>
     <row r="663" spans="1:14" x14ac:dyDescent="0.25">
@@ -35105,13 +35105,13 @@
         <v>17.624000000000002</v>
       </c>
       <c r="L663" s="72">
-        <v>158.66200000000001</v>
+        <v>158.66199999999998</v>
       </c>
       <c r="M663" s="72">
         <v>36.658000000000001</v>
       </c>
       <c r="N663" s="72">
-        <v>176.286</v>
+        <v>176.28599999999997</v>
       </c>
     </row>
     <row r="664" spans="1:14" x14ac:dyDescent="0.25">
@@ -35146,7 +35146,7 @@
         <v>70</v>
       </c>
       <c r="K664" s="72">
-        <v>26.465000000000003</v>
+        <v>26.464999999999996</v>
       </c>
       <c r="L664" s="72">
         <v>30.353999999999999</v>
@@ -35155,7 +35155,7 @@
         <v>145.93200000000002</v>
       </c>
       <c r="N664" s="72">
-        <v>56.819000000000003</v>
+        <v>56.818999999999996</v>
       </c>
     </row>
     <row r="665" spans="1:14" x14ac:dyDescent="0.25">
@@ -35193,7 +35193,7 @@
         <v>0</v>
       </c>
       <c r="M665" s="72">
-        <v>56.819000000000003</v>
+        <v>56.818999999999996</v>
       </c>
       <c r="N665" s="72">
         <v>0</v>
@@ -36321,13 +36321,13 @@
         <v>3.15</v>
       </c>
       <c r="L692" s="72">
-        <v>87.925000000000011</v>
+        <v>87.924999999999983</v>
       </c>
       <c r="M692" s="72">
         <v>66.015000000000001</v>
       </c>
       <c r="N692" s="72">
-        <v>91.075000000000017</v>
+        <v>91.074999999999989</v>
       </c>
     </row>
     <row r="693" spans="1:14" x14ac:dyDescent="0.25">
@@ -36365,13 +36365,13 @@
         <v>3.74</v>
       </c>
       <c r="L693" s="72">
-        <v>84.195000000000007</v>
+        <v>84.194999999999993</v>
       </c>
       <c r="M693" s="72">
         <v>6.88</v>
       </c>
       <c r="N693" s="72">
-        <v>87.935000000000002</v>
+        <v>87.934999999999988</v>
       </c>
     </row>
     <row r="694" spans="1:14" x14ac:dyDescent="0.25">
@@ -36409,13 +36409,13 @@
         <v>10.356999999999999</v>
       </c>
       <c r="L694" s="72">
-        <v>55.859999999999985</v>
+        <v>55.86</v>
       </c>
       <c r="M694" s="72">
-        <v>32.075000000000003</v>
+        <v>32.074999999999996</v>
       </c>
       <c r="N694" s="72">
-        <v>66.216999999999985</v>
+        <v>66.216999999999999</v>
       </c>
     </row>
     <row r="695" spans="1:14" x14ac:dyDescent="0.25">
@@ -36453,7 +36453,7 @@
         <v>0</v>
       </c>
       <c r="M695" s="72">
-        <v>66.216999999999985</v>
+        <v>66.216999999999999</v>
       </c>
       <c r="N695" s="72">
         <v>0</v>
@@ -36482,7 +36482,7 @@
         <v>70</v>
       </c>
       <c r="K696" s="72">
-        <v>134.58699999999999</v>
+        <v>134.58700000000002</v>
       </c>
       <c r="L696" s="72">
         <v>0</v>
@@ -36491,7 +36491,7 @@
         <v>0</v>
       </c>
       <c r="N696" s="72">
-        <v>134.58699999999999</v>
+        <v>134.58700000000002</v>
       </c>
     </row>
     <row r="697" spans="1:14" x14ac:dyDescent="0.25">
@@ -36526,13 +36526,13 @@
         <v>70</v>
       </c>
       <c r="K697" s="72">
-        <v>70.033999999999992</v>
+        <v>70.034000000000006</v>
       </c>
       <c r="L697" s="72">
-        <v>54.576999999999998</v>
+        <v>54.576999999999984</v>
       </c>
       <c r="M697" s="72">
-        <v>80.009999999999991</v>
+        <v>80.010000000000005</v>
       </c>
       <c r="N697" s="72">
         <v>124.61099999999999</v>
@@ -37786,16 +37786,16 @@
         <v>70</v>
       </c>
       <c r="K727" s="72">
-        <v>246.631</v>
+        <v>246.63100000000003</v>
       </c>
       <c r="L727" s="72">
-        <v>69.859000000000009</v>
+        <v>69.858999999999924</v>
       </c>
       <c r="M727" s="72">
         <v>32.268000000000001</v>
       </c>
       <c r="N727" s="72">
-        <v>316.49</v>
+        <v>316.48999999999995</v>
       </c>
     </row>
     <row r="728" spans="1:14" x14ac:dyDescent="0.25">
@@ -37874,16 +37874,16 @@
         <v>70</v>
       </c>
       <c r="K729" s="72">
-        <v>50.320000000000007</v>
+        <v>50.32</v>
       </c>
       <c r="L729" s="72">
-        <v>118.96299999999998</v>
+        <v>118.96299999999997</v>
       </c>
       <c r="M729" s="72">
         <v>25.198</v>
       </c>
       <c r="N729" s="72">
-        <v>169.28299999999999</v>
+        <v>169.28299999999996</v>
       </c>
     </row>
     <row r="730" spans="1:14" x14ac:dyDescent="0.25">
@@ -37921,13 +37921,13 @@
         <v>42.287000000000006</v>
       </c>
       <c r="L730" s="72">
-        <v>75.308000000000007</v>
+        <v>75.307999999999993</v>
       </c>
       <c r="M730" s="72">
-        <v>93.974999999999994</v>
+        <v>93.975000000000009</v>
       </c>
       <c r="N730" s="72">
-        <v>117.59500000000001</v>
+        <v>117.595</v>
       </c>
     </row>
     <row r="731" spans="1:14" x14ac:dyDescent="0.25">
@@ -37965,7 +37965,7 @@
         <v>0</v>
       </c>
       <c r="M731" s="72">
-        <v>117.59500000000001</v>
+        <v>117.595</v>
       </c>
       <c r="N731" s="72">
         <v>0</v>
@@ -39550,16 +39550,16 @@
         <v>70</v>
       </c>
       <c r="K769" s="72">
-        <v>68.219000000000008</v>
+        <v>68.218999999999994</v>
       </c>
       <c r="L769" s="72">
-        <v>65.991999999999976</v>
+        <v>65.992000000000019</v>
       </c>
       <c r="M769" s="72">
         <v>30.859000000000002</v>
       </c>
       <c r="N769" s="72">
-        <v>134.21099999999998</v>
+        <v>134.21100000000001</v>
       </c>
     </row>
     <row r="770" spans="1:14" x14ac:dyDescent="0.25">
@@ -39597,13 +39597,13 @@
         <v>58.085000000000008</v>
       </c>
       <c r="L770" s="72">
-        <v>110.67400000000001</v>
+        <v>110.67399999999998</v>
       </c>
       <c r="M770" s="72">
         <v>23.536999999999999</v>
       </c>
       <c r="N770" s="72">
-        <v>168.75900000000001</v>
+        <v>168.75899999999999</v>
       </c>
     </row>
     <row r="771" spans="1:14" x14ac:dyDescent="0.25">
@@ -39685,13 +39685,13 @@
         <v>29.869</v>
       </c>
       <c r="L772" s="72">
-        <v>23.836000000000006</v>
+        <v>23.835999999999999</v>
       </c>
       <c r="M772" s="72">
-        <v>60.411000000000001</v>
+        <v>60.410999999999987</v>
       </c>
       <c r="N772" s="72">
-        <v>53.705000000000005</v>
+        <v>53.704999999999998</v>
       </c>
     </row>
     <row r="773" spans="1:14" x14ac:dyDescent="0.25">
@@ -39729,7 +39729,7 @@
         <v>0</v>
       </c>
       <c r="M773" s="72">
-        <v>53.705000000000005</v>
+        <v>53.704999999999998</v>
       </c>
       <c r="N773" s="72">
         <v>0</v>
@@ -40948,7 +40948,7 @@
         <v>173.74</v>
       </c>
       <c r="M802" s="72">
-        <v>87.277000000000001</v>
+        <v>87.276999999999987</v>
       </c>
       <c r="N802" s="72">
         <v>235.97800000000001</v>
@@ -41018,7 +41018,7 @@
         <v>70</v>
       </c>
       <c r="K804" s="72">
-        <v>61.062000000000005</v>
+        <v>61.061999999999998</v>
       </c>
       <c r="L804" s="72">
         <v>0</v>
@@ -41027,7 +41027,7 @@
         <v>0</v>
       </c>
       <c r="N804" s="72">
-        <v>61.062000000000005</v>
+        <v>61.061999999999998</v>
       </c>
     </row>
     <row r="805" spans="1:14" x14ac:dyDescent="0.25">
@@ -41062,16 +41062,16 @@
         <v>70</v>
       </c>
       <c r="K805" s="72">
-        <v>53.803000000000004</v>
+        <v>53.802999999999997</v>
       </c>
       <c r="L805" s="72">
-        <v>41.946999999999981</v>
+        <v>41.947000000000003</v>
       </c>
       <c r="M805" s="72">
         <v>19.115000000000002</v>
       </c>
       <c r="N805" s="72">
-        <v>95.749999999999986</v>
+        <v>95.75</v>
       </c>
     </row>
     <row r="806" spans="1:14" x14ac:dyDescent="0.25">
@@ -41106,13 +41106,13 @@
         <v>70</v>
       </c>
       <c r="K806" s="72">
-        <v>77.021000000000001</v>
+        <v>77.020999999999987</v>
       </c>
       <c r="L806" s="72">
-        <v>76.553000000000011</v>
+        <v>76.553000000000026</v>
       </c>
       <c r="M806" s="72">
-        <v>19.196999999999999</v>
+        <v>19.197000000000003</v>
       </c>
       <c r="N806" s="72">
         <v>153.57400000000001</v>
@@ -41150,7 +41150,7 @@
         <v>70</v>
       </c>
       <c r="K807" s="72">
-        <v>72.956999999999994</v>
+        <v>72.957000000000008</v>
       </c>
       <c r="L807" s="72">
         <v>129.41199999999998</v>
@@ -42574,10 +42574,10 @@
         <v>70</v>
       </c>
       <c r="K841" s="72">
-        <v>99.658999999999992</v>
+        <v>99.659000000000006</v>
       </c>
       <c r="L841" s="72">
-        <v>77.517000000000053</v>
+        <v>77.517000000000039</v>
       </c>
       <c r="M841" s="72">
         <v>26.78</v>
@@ -42618,10 +42618,10 @@
         <v>70</v>
       </c>
       <c r="K842" s="72">
-        <v>95.914999999999992</v>
+        <v>95.91500000000002</v>
       </c>
       <c r="L842" s="72">
-        <v>140.57200000000003</v>
+        <v>140.572</v>
       </c>
       <c r="M842" s="72">
         <v>36.603999999999999</v>
@@ -42665,13 +42665,13 @@
         <v>38.951999999999998</v>
       </c>
       <c r="L843" s="72">
-        <v>178.03200000000004</v>
+        <v>178.03200000000001</v>
       </c>
       <c r="M843" s="72">
         <v>58.454999999999998</v>
       </c>
       <c r="N843" s="72">
-        <v>216.98400000000004</v>
+        <v>216.98400000000001</v>
       </c>
     </row>
     <row r="844" spans="1:14" x14ac:dyDescent="0.25">
@@ -42712,7 +42712,7 @@
         <v>21.26</v>
       </c>
       <c r="M844" s="72">
-        <v>195.72400000000002</v>
+        <v>195.72400000000005</v>
       </c>
       <c r="N844" s="72">
         <v>25.231000000000002</v>
@@ -44086,7 +44086,7 @@
         <v>70</v>
       </c>
       <c r="K877" s="72">
-        <v>164.52799999999999</v>
+        <v>164.52800000000002</v>
       </c>
       <c r="L877" s="72">
         <v>50.716000000000008</v>
@@ -44095,7 +44095,7 @@
         <v>28.155999999999999</v>
       </c>
       <c r="N877" s="72">
-        <v>215.244</v>
+        <v>215.24400000000003</v>
       </c>
     </row>
     <row r="878" spans="1:14" x14ac:dyDescent="0.25">
@@ -44139,7 +44139,7 @@
         <v>11.554</v>
       </c>
       <c r="N878" s="72">
-        <v>255.94900000000001</v>
+        <v>255.94899999999998</v>
       </c>
     </row>
     <row r="879" spans="1:14" x14ac:dyDescent="0.25">
@@ -45481,13 +45481,13 @@
         <v>45.97</v>
       </c>
       <c r="L910" s="72">
-        <v>12.722000000000008</v>
+        <v>12.722000000000001</v>
       </c>
       <c r="M910" s="72">
         <v>60.843000000000004</v>
       </c>
       <c r="N910" s="72">
-        <v>58.692000000000007</v>
+        <v>58.692</v>
       </c>
     </row>
     <row r="911" spans="1:14" x14ac:dyDescent="0.25">
@@ -45525,7 +45525,7 @@
         <v>0</v>
       </c>
       <c r="M911" s="72">
-        <v>58.692000000000007</v>
+        <v>58.692</v>
       </c>
       <c r="N911" s="72">
         <v>0</v>
@@ -45607,7 +45607,7 @@
         <v>2.8340000000000001</v>
       </c>
       <c r="N913" s="72">
-        <v>115.367</v>
+        <v>115.36699999999999</v>
       </c>
     </row>
     <row r="914" spans="1:14" x14ac:dyDescent="0.25">
@@ -45648,7 +45648,7 @@
         <v>47.281000000000013</v>
       </c>
       <c r="M914" s="72">
-        <v>68.086000000000013</v>
+        <v>68.085999999999999</v>
       </c>
       <c r="N914" s="72">
         <v>85.26100000000001</v>
@@ -49565,13 +49565,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="72">
-        <v>231.46399999999994</v>
+        <v>231.46399999999988</v>
       </c>
       <c r="H6" s="72">
         <v>210</v>
       </c>
       <c r="I6" s="76">
-        <v>1.1022095238095235</v>
+        <v>1.1022095238095233</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -49594,13 +49594,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="72">
-        <v>48.236750000000008</v>
+        <v>48.236749999999994</v>
       </c>
       <c r="H7" s="72">
         <v>210</v>
       </c>
       <c r="I7" s="76">
-        <v>0.22969880952380956</v>
+        <v>0.2296988095238095</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -49623,13 +49623,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="72">
-        <v>51.484000000000002</v>
+        <v>51.484000000000009</v>
       </c>
       <c r="H8" s="72">
         <v>70</v>
       </c>
       <c r="I8" s="76">
-        <v>0.7354857142857143</v>
+        <v>0.73548571428571441</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -49652,13 +49652,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="72">
-        <v>23.502249999999997</v>
+        <v>23.502250000000007</v>
       </c>
       <c r="H9" s="72">
         <v>70</v>
       </c>
       <c r="I9" s="76">
-        <v>0.3357464285714285</v>
+        <v>0.33574642857142867</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -49681,13 +49681,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="72">
-        <v>100.93100000000005</v>
+        <v>100.93100000000001</v>
       </c>
       <c r="H10" s="72">
         <v>140</v>
       </c>
       <c r="I10" s="76">
-        <v>0.72093571428571468</v>
+        <v>0.72093571428571435</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -49710,13 +49710,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="72">
-        <v>54.594500000000011</v>
+        <v>54.594499999999989</v>
       </c>
       <c r="H11" s="72">
         <v>140</v>
       </c>
       <c r="I11" s="76">
-        <v>0.38996071428571438</v>
+        <v>0.38996071428571422</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -49739,13 +49739,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="72">
-        <v>236.99600000000004</v>
+        <v>236.99600000000001</v>
       </c>
       <c r="H12" s="72">
         <v>210</v>
       </c>
       <c r="I12" s="76">
-        <v>1.1285523809523812</v>
+        <v>1.128552380952381</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -49797,13 +49797,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="72">
-        <v>47.54525000000001</v>
+        <v>47.545249999999989</v>
       </c>
       <c r="H14" s="72">
         <v>70</v>
       </c>
       <c r="I14" s="76">
-        <v>0.67921785714285732</v>
+        <v>0.67921785714285698</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -49826,13 +49826,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="72">
-        <v>40.350999999999992</v>
+        <v>40.350999999999999</v>
       </c>
       <c r="H15" s="72">
         <v>70</v>
       </c>
       <c r="I15" s="76">
-        <v>0.57644285714285703</v>
+        <v>0.57644285714285715</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -49884,13 +49884,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="72">
-        <v>16.843750000000004</v>
+        <v>16.84375</v>
       </c>
       <c r="H17" s="72">
         <v>70</v>
       </c>
       <c r="I17" s="76">
-        <v>0.24062500000000006</v>
+        <v>0.24062500000000001</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -49913,13 +49913,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="72">
-        <v>40.9</v>
+        <v>40.900000000000013</v>
       </c>
       <c r="H18" s="72">
         <v>70</v>
       </c>
       <c r="I18" s="76">
-        <v>0.5842857142857143</v>
+        <v>0.58428571428571452</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -50000,13 +50000,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="72">
-        <v>33.444499999999998</v>
+        <v>33.444499999999991</v>
       </c>
       <c r="H21" s="72">
         <v>70</v>
       </c>
       <c r="I21" s="76">
-        <v>0.47777857142857139</v>
+        <v>0.47777857142857127</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -50116,13 +50116,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="72">
-        <v>26.406749999999999</v>
+        <v>26.406749999999995</v>
       </c>
       <c r="H25" s="72">
         <v>70</v>
       </c>
       <c r="I25" s="76">
-        <v>0.37723928571428572</v>
+        <v>0.37723928571428567</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -50145,13 +50145,13 @@
         <v>0</v>
       </c>
       <c r="G26" s="72">
-        <v>57.035499999999992</v>
+        <v>57.035499999999999</v>
       </c>
       <c r="H26" s="72">
         <v>70</v>
       </c>
       <c r="I26" s="76">
-        <v>0.81479285714285699</v>
+        <v>0.8147928571428571</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -50174,13 +50174,13 @@
         <v>0</v>
       </c>
       <c r="G27" s="72">
-        <v>28.754499999999993</v>
+        <v>28.754500000000004</v>
       </c>
       <c r="H27" s="72">
         <v>70</v>
       </c>
       <c r="I27" s="76">
-        <v>0.41077857142857133</v>
+        <v>0.41077857142857149</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -50203,13 +50203,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="72">
-        <v>104.17775000000002</v>
+        <v>104.17775</v>
       </c>
       <c r="H28" s="72">
         <v>140</v>
       </c>
       <c r="I28" s="76">
-        <v>0.74412678571428581</v>
+        <v>0.7441267857142857</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -50232,13 +50232,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="72">
-        <v>67.41225</v>
+        <v>67.412250000000014</v>
       </c>
       <c r="H29" s="72">
         <v>140</v>
       </c>
       <c r="I29" s="76">
-        <v>0.48151607142857145</v>
+        <v>0.48151607142857156</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -50261,13 +50261,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="72">
-        <v>269.15900000000005</v>
+        <v>269.15899999999988</v>
       </c>
       <c r="H30" s="72">
         <v>280</v>
       </c>
       <c r="I30" s="76">
-        <v>0.96128214285714308</v>
+        <v>0.96128214285714242</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -50290,13 +50290,13 @@
         <v>0</v>
       </c>
       <c r="G31" s="72">
-        <v>107.91600000000001</v>
+        <v>107.91599999999998</v>
       </c>
       <c r="H31" s="72">
         <v>280</v>
       </c>
       <c r="I31" s="76">
-        <v>0.38541428571428576</v>
+        <v>0.38541428571428565</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -50319,13 +50319,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="72">
-        <v>118.99925000000005</v>
+        <v>118.99925000000007</v>
       </c>
       <c r="H32" s="72">
         <v>140</v>
       </c>
       <c r="I32" s="76">
-        <v>0.84999464285714321</v>
+        <v>0.84999464285714343</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -50377,13 +50377,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="72">
-        <v>288.38024999999999</v>
+        <v>288.38025000000005</v>
       </c>
       <c r="H34" s="72">
         <v>210</v>
       </c>
       <c r="I34" s="76">
-        <v>1.3732392857142857</v>
+        <v>1.3732392857142859</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -50406,13 +50406,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="72">
-        <v>128.54125000000002</v>
+        <v>128.54125000000005</v>
       </c>
       <c r="H35" s="72">
         <v>210</v>
       </c>
       <c r="I35" s="76">
-        <v>0.6121011904761906</v>
+        <v>0.61210119047619072</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -50435,13 +50435,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="72">
-        <v>62.345749999999988</v>
+        <v>62.34575000000001</v>
       </c>
       <c r="H36" s="72">
         <v>70</v>
       </c>
       <c r="I36" s="76">
-        <v>0.89065357142857127</v>
+        <v>0.8906535714285716</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -50464,13 +50464,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="72">
-        <v>80.285749999999993</v>
+        <v>80.285750000000021</v>
       </c>
       <c r="H37" s="72">
         <v>70</v>
       </c>
       <c r="I37" s="76">
-        <v>1.1469392857142857</v>
+        <v>1.1469392857142859</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -50493,13 +50493,13 @@
         <v>0</v>
       </c>
       <c r="G38" s="72">
-        <v>142.41875000000002</v>
+        <v>142.41875000000005</v>
       </c>
       <c r="H38" s="72">
         <v>140</v>
       </c>
       <c r="I38" s="76">
-        <v>1.0172767857142859</v>
+        <v>1.0172767857142861</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -50551,13 +50551,13 @@
         <v>0</v>
       </c>
       <c r="G40" s="72">
-        <v>27.051999999999992</v>
+        <v>27.052</v>
       </c>
       <c r="H40" s="72">
         <v>70</v>
       </c>
       <c r="I40" s="76">
-        <v>0.38645714285714278</v>
+        <v>0.38645714285714283</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -50580,13 +50580,13 @@
         <v>0</v>
       </c>
       <c r="G41" s="72">
-        <v>29.554750000000006</v>
+        <v>29.554750000000002</v>
       </c>
       <c r="H41" s="72">
         <v>70</v>
       </c>
       <c r="I41" s="76">
-        <v>0.42221071428571438</v>
+        <v>0.42221071428571433</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -50609,13 +50609,13 @@
         <v>0</v>
       </c>
       <c r="G42" s="72">
-        <v>188.19400000000005</v>
+        <v>188.19400000000007</v>
       </c>
       <c r="H42" s="72">
         <v>140</v>
       </c>
       <c r="I42" s="76">
-        <v>1.3442428571428575</v>
+        <v>1.3442428571428577</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -50667,7 +50667,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="72">
-        <v>28.343250000000001</v>
+        <v>28.343249999999998</v>
       </c>
       <c r="H44" s="72">
         <v>70</v>
@@ -50696,13 +50696,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="72">
-        <v>93.833250000000007</v>
+        <v>93.833249999999992</v>
       </c>
       <c r="H45" s="72">
         <v>70</v>
       </c>
       <c r="I45" s="76">
-        <v>1.3404750000000001</v>
+        <v>1.3404749999999999</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -50725,13 +50725,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="72">
-        <v>423.88049999999998</v>
+        <v>423.88049999999981</v>
       </c>
       <c r="H46" s="72">
         <v>350</v>
       </c>
       <c r="I46" s="76">
-        <v>1.2110871428571428</v>
+        <v>1.2110871428571424</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -50754,13 +50754,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="72">
-        <v>208.93100000000001</v>
+        <v>208.93100000000007</v>
       </c>
       <c r="H47" s="72">
         <v>350</v>
       </c>
       <c r="I47" s="76">
-        <v>0.5969457142857143</v>
+        <v>0.59694571428571452</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -50783,13 +50783,13 @@
         <v>0</v>
       </c>
       <c r="G48" s="72">
-        <v>118.77675000000001</v>
+        <v>118.77674999999996</v>
       </c>
       <c r="H48" s="72">
         <v>140</v>
       </c>
       <c r="I48" s="76">
-        <v>0.84840535714285714</v>
+        <v>0.84840535714285692</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -50812,13 +50812,13 @@
         <v>0</v>
       </c>
       <c r="G49" s="72">
-        <v>68.798249999999996</v>
+        <v>68.798249999999982</v>
       </c>
       <c r="H49" s="72">
         <v>140</v>
       </c>
       <c r="I49" s="76">
-        <v>0.49141607142857141</v>
+        <v>0.4914160714285713</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -50841,13 +50841,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="72">
-        <v>142.68149999999997</v>
+        <v>142.6815</v>
       </c>
       <c r="H50" s="72">
         <v>210</v>
       </c>
       <c r="I50" s="76">
-        <v>0.67943571428571414</v>
+        <v>0.67943571428571425</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -50899,13 +50899,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="72">
-        <v>206.10675000000001</v>
+        <v>206.10674999999998</v>
       </c>
       <c r="H52" s="72">
         <v>210</v>
       </c>
       <c r="I52" s="76">
-        <v>0.98146071428571435</v>
+        <v>0.98146071428571413</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -50928,13 +50928,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="72">
-        <v>299.08850000000007</v>
+        <v>299.08850000000001</v>
       </c>
       <c r="H53" s="72">
         <v>210</v>
       </c>
       <c r="I53" s="76">
-        <v>1.4242309523809527</v>
+        <v>1.4242309523809524</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -51015,7 +51015,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="72">
-        <v>108.44299999999998</v>
+        <v>108.44299999999997</v>
       </c>
       <c r="H56" s="72">
         <v>140</v>
@@ -51044,13 +51044,13 @@
         <v>0</v>
       </c>
       <c r="G57" s="72">
-        <v>119.029</v>
+        <v>119.02899999999995</v>
       </c>
       <c r="H57" s="72">
         <v>140</v>
       </c>
       <c r="I57" s="76">
-        <v>0.85020714285714283</v>
+        <v>0.85020714285714249</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -51073,13 +51073,13 @@
         <v>0</v>
       </c>
       <c r="G58" s="72">
-        <v>23.776499999999992</v>
+        <v>23.776500000000006</v>
       </c>
       <c r="H58" s="72">
         <v>70</v>
       </c>
       <c r="I58" s="76">
-        <v>0.33966428571428559</v>
+        <v>0.33966428571428581</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -51102,13 +51102,13 @@
         <v>0</v>
       </c>
       <c r="G59" s="72">
-        <v>16.381250000000001</v>
+        <v>16.381249999999998</v>
       </c>
       <c r="H59" s="72">
         <v>70</v>
       </c>
       <c r="I59" s="76">
-        <v>0.23401785714285717</v>
+        <v>0.23401785714285711</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -51218,13 +51218,13 @@
         <v>0</v>
       </c>
       <c r="G63" s="72">
-        <v>54.726250000000022</v>
+        <v>54.726249999999993</v>
       </c>
       <c r="H63" s="72">
         <v>70</v>
       </c>
       <c r="I63" s="76">
-        <v>0.78180357142857171</v>
+        <v>0.78180357142857138</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -51247,13 +51247,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="72">
-        <v>81.493249999999989</v>
+        <v>81.493250000000003</v>
       </c>
       <c r="H64" s="72">
         <v>140</v>
       </c>
       <c r="I64" s="76">
-        <v>0.58209464285714274</v>
+        <v>0.58209464285714285</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -51276,13 +51276,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="72">
-        <v>42.438499999999991</v>
+        <v>42.438499999999998</v>
       </c>
       <c r="H65" s="72">
         <v>140</v>
       </c>
       <c r="I65" s="76">
-        <v>0.30313214285714279</v>
+        <v>0.30313214285714285</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -51305,13 +51305,13 @@
         <v>0</v>
       </c>
       <c r="G66" s="72">
-        <v>73.189999999999955</v>
+        <v>73.189999999999984</v>
       </c>
       <c r="H66" s="72">
         <v>70</v>
       </c>
       <c r="I66" s="76">
-        <v>1.0455714285714279</v>
+        <v>1.0455714285714284</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -51334,13 +51334,13 @@
         <v>0</v>
       </c>
       <c r="G67" s="72">
-        <v>19.041000000000004</v>
+        <v>19.040999999999997</v>
       </c>
       <c r="H67" s="72">
         <v>70</v>
       </c>
       <c r="I67" s="76">
-        <v>0.27201428571428576</v>
+        <v>0.27201428571428565</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -51363,13 +51363,13 @@
         <v>0</v>
       </c>
       <c r="G68" s="72">
-        <v>145.23250000000002</v>
+        <v>145.23250000000004</v>
       </c>
       <c r="H68" s="72">
         <v>140</v>
       </c>
       <c r="I68" s="76">
-        <v>1.0373750000000002</v>
+        <v>1.0373750000000004</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -51392,13 +51392,13 @@
         <v>0</v>
       </c>
       <c r="G69" s="72">
-        <v>137.97975000000002</v>
+        <v>137.97975000000005</v>
       </c>
       <c r="H69" s="72">
         <v>140</v>
       </c>
       <c r="I69" s="76">
-        <v>0.98556964285714299</v>
+        <v>0.98556964285714321</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -51421,13 +51421,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="72">
-        <v>61.569999999999979</v>
+        <v>61.569999999999993</v>
       </c>
       <c r="H70" s="72">
         <v>70</v>
       </c>
       <c r="I70" s="76">
-        <v>0.87957142857142823</v>
+        <v>0.87957142857142845</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -51479,13 +51479,13 @@
         <v>0</v>
       </c>
       <c r="G72" s="72">
-        <v>102.88224999999998</v>
+        <v>102.88225000000001</v>
       </c>
       <c r="H72" s="72">
         <v>70</v>
       </c>
       <c r="I72" s="76">
-        <v>1.4697464285714283</v>
+        <v>1.4697464285714288</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -51508,13 +51508,13 @@
         <v>0</v>
       </c>
       <c r="G73" s="72">
-        <v>77.369500000000045</v>
+        <v>77.369500000000002</v>
       </c>
       <c r="H73" s="72">
         <v>70</v>
       </c>
       <c r="I73" s="76">
-        <v>1.105278571428572</v>
+        <v>1.1052785714285716</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -51537,13 +51537,13 @@
         <v>0</v>
       </c>
       <c r="G74" s="72">
-        <v>38.841000000000008</v>
+        <v>38.841000000000015</v>
       </c>
       <c r="H74" s="72">
         <v>70</v>
       </c>
       <c r="I74" s="76">
-        <v>0.55487142857142868</v>
+        <v>0.55487142857142879</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -51566,13 +51566,13 @@
         <v>0</v>
       </c>
       <c r="G75" s="72">
-        <v>40.225500000000011</v>
+        <v>40.22549999999999</v>
       </c>
       <c r="H75" s="72">
         <v>70</v>
       </c>
       <c r="I75" s="76">
-        <v>0.57465000000000011</v>
+        <v>0.57464999999999988</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -51595,7 +51595,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="72">
-        <v>90.529250000000005</v>
+        <v>90.529250000000019</v>
       </c>
       <c r="H76" s="72">
         <v>70</v>
@@ -51682,13 +51682,13 @@
         <v>0</v>
       </c>
       <c r="G79" s="72">
-        <v>66.39725</v>
+        <v>66.397250000000014</v>
       </c>
       <c r="H79" s="72">
         <v>70</v>
       </c>
       <c r="I79" s="76">
-        <v>0.94853214285714282</v>
+        <v>0.94853214285714305</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -51711,13 +51711,13 @@
         <v>0</v>
       </c>
       <c r="G80" s="72">
-        <v>123.34799999999994</v>
+        <v>123.34800000000003</v>
       </c>
       <c r="H80" s="72">
         <v>70</v>
       </c>
       <c r="I80" s="76">
-        <v>1.7621142857142849</v>
+        <v>1.7621142857142862</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -51740,13 +51740,13 @@
         <v>0</v>
       </c>
       <c r="G81" s="72">
-        <v>75.503749999999997</v>
+        <v>75.503750000000039</v>
       </c>
       <c r="H81" s="72">
         <v>70</v>
       </c>
       <c r="I81" s="76">
-        <v>1.0786249999999999</v>
+        <v>1.0786250000000006</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -51769,13 +51769,13 @@
         <v>0</v>
       </c>
       <c r="G82" s="72">
-        <v>111.50024999999998</v>
+        <v>111.50025000000001</v>
       </c>
       <c r="H82" s="72">
         <v>70</v>
       </c>
       <c r="I82" s="76">
-        <v>1.5928607142857141</v>
+        <v>1.5928607142857143</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -51798,13 +51798,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="72">
-        <v>48.376000000000005</v>
+        <v>48.376000000000026</v>
       </c>
       <c r="H83" s="72">
         <v>70</v>
       </c>
       <c r="I83" s="76">
-        <v>0.6910857142857143</v>
+        <v>0.69108571428571464</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -51856,13 +51856,13 @@
         <v>0</v>
       </c>
       <c r="G85" s="72">
-        <v>24.544750000000004</v>
+        <v>24.544750000000001</v>
       </c>
       <c r="H85" s="72">
         <v>140</v>
       </c>
       <c r="I85" s="76">
-        <v>0.17531964285714288</v>
+        <v>0.17531964285714285</v>
       </c>
     </row>
   </sheetData>

--- a/Grid_5x5/Solutions/Solution_NDP_S068/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S068/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
@@ -2709,7 +2709,7 @@
         <v>202</v>
       </c>
       <c r="C42" s="39">
-        <v>1.7621142857142862</v>
+        <v>1.7621142857142855</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>42</v>
@@ -2729,7 +2729,7 @@
         <v>204</v>
       </c>
       <c r="C43" s="40">
-        <v>2.5646571428571421</v>
+        <v>2.5646571428571425</v>
       </c>
       <c r="D43" s="67" t="s">
         <v>42</v>
@@ -7842,13 +7842,13 @@
         <v>70</v>
       </c>
       <c r="K14" s="72">
-        <v>125.17400000000002</v>
+        <v>125.17400000000001</v>
       </c>
       <c r="L14" s="72">
-        <v>67.668999999999997</v>
+        <v>67.669000000000011</v>
       </c>
       <c r="M14" s="72">
-        <v>52.148000000000003</v>
+        <v>52.147999999999996</v>
       </c>
       <c r="N14" s="72">
         <v>192.84300000000002</v>
@@ -7886,16 +7886,16 @@
         <v>70</v>
       </c>
       <c r="K15" s="72">
-        <v>32.064000000000007</v>
+        <v>32.064</v>
       </c>
       <c r="L15" s="72">
-        <v>66.920999999999992</v>
+        <v>66.921000000000021</v>
       </c>
       <c r="M15" s="72">
-        <v>125.92200000000001</v>
+        <v>125.922</v>
       </c>
       <c r="N15" s="72">
-        <v>98.984999999999999</v>
+        <v>98.985000000000014</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -9357,13 +9357,13 @@
         <v>69.078000000000003</v>
       </c>
       <c r="L50" s="72">
-        <v>53.652000000000001</v>
+        <v>53.651999999999987</v>
       </c>
       <c r="M50" s="72">
         <v>77.435999999999993</v>
       </c>
       <c r="N50" s="72">
-        <v>122.73</v>
+        <v>122.72999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -9398,13 +9398,13 @@
         <v>70</v>
       </c>
       <c r="K51" s="72">
-        <v>46.383000000000003</v>
+        <v>46.382999999999996</v>
       </c>
       <c r="L51" s="72">
-        <v>36.622999999999998</v>
+        <v>36.623000000000005</v>
       </c>
       <c r="M51" s="72">
-        <v>86.106999999999999</v>
+        <v>86.107000000000014</v>
       </c>
       <c r="N51" s="72">
         <v>83.006</v>
@@ -10749,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="72">
-        <v>111.77800000000001</v>
+        <v>111.77799999999999</v>
       </c>
       <c r="N83" s="72">
         <v>0</v>
@@ -10869,13 +10869,13 @@
         <v>92.271000000000015</v>
       </c>
       <c r="L86" s="72">
-        <v>10.483999999999995</v>
+        <v>10.48399999999998</v>
       </c>
       <c r="M86" s="72">
-        <v>22.816000000000003</v>
+        <v>22.815999999999999</v>
       </c>
       <c r="N86" s="72">
-        <v>102.75500000000001</v>
+        <v>102.755</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -10910,7 +10910,7 @@
         <v>70</v>
       </c>
       <c r="K87" s="72">
-        <v>25.685000000000002</v>
+        <v>25.684999999999999</v>
       </c>
       <c r="L87" s="72">
         <v>88.582999999999998</v>
@@ -12290,7 +12290,7 @@
         <v>70</v>
       </c>
       <c r="K120" s="72">
-        <v>51.300999999999995</v>
+        <v>51.301000000000002</v>
       </c>
       <c r="L120" s="72">
         <v>0</v>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="N120" s="72">
-        <v>51.300999999999995</v>
+        <v>51.301000000000002</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -12381,13 +12381,13 @@
         <v>13.27</v>
       </c>
       <c r="L122" s="72">
-        <v>38.120999999999995</v>
+        <v>38.121000000000009</v>
       </c>
       <c r="M122" s="72">
         <v>30.15</v>
       </c>
       <c r="N122" s="72">
-        <v>51.390999999999991</v>
+        <v>51.391000000000005</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -12425,13 +12425,13 @@
         <v>97.856999999999999</v>
       </c>
       <c r="L123" s="72">
-        <v>32.828999999999979</v>
+        <v>32.829000000000008</v>
       </c>
       <c r="M123" s="72">
-        <v>18.562000000000001</v>
+        <v>18.562000000000005</v>
       </c>
       <c r="N123" s="72">
-        <v>130.68599999999998</v>
+        <v>130.68600000000001</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -12466,13 +12466,13 @@
         <v>70</v>
       </c>
       <c r="K124" s="72">
-        <v>13.996</v>
+        <v>13.995999999999999</v>
       </c>
       <c r="L124" s="72">
         <v>73.825000000000003</v>
       </c>
       <c r="M124" s="72">
-        <v>56.861000000000004</v>
+        <v>56.860999999999997</v>
       </c>
       <c r="N124" s="72">
         <v>87.820999999999998</v>
@@ -13641,13 +13641,13 @@
         <v>59.141000000000005</v>
       </c>
       <c r="L152" s="72">
-        <v>328.24500000000006</v>
+        <v>328.24499999999995</v>
       </c>
       <c r="M152" s="72">
-        <v>72.872000000000014</v>
+        <v>72.872</v>
       </c>
       <c r="N152" s="72">
-        <v>387.38600000000008</v>
+        <v>387.38599999999997</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
@@ -13685,13 +13685,13 @@
         <v>113.828</v>
       </c>
       <c r="L153" s="72">
-        <v>183.37299999999996</v>
+        <v>183.37300000000002</v>
       </c>
       <c r="M153" s="72">
         <v>204.01300000000001</v>
       </c>
       <c r="N153" s="72">
-        <v>297.20099999999996</v>
+        <v>297.20100000000002</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
@@ -15358,10 +15358,10 @@
         <v>70</v>
       </c>
       <c r="K193" s="72">
-        <v>148.73999999999998</v>
+        <v>148.74</v>
       </c>
       <c r="L193" s="72">
-        <v>121.78099999999998</v>
+        <v>121.78099999999995</v>
       </c>
       <c r="M193" s="72">
         <v>23.931000000000001</v>
@@ -15402,10 +15402,10 @@
         <v>70</v>
       </c>
       <c r="K194" s="72">
-        <v>50.627999999999993</v>
+        <v>50.628</v>
       </c>
       <c r="L194" s="72">
-        <v>45.69400000000001</v>
+        <v>45.694000000000003</v>
       </c>
       <c r="M194" s="72">
         <v>224.827</v>
@@ -16914,16 +16914,16 @@
         <v>70</v>
       </c>
       <c r="K230" s="72">
-        <v>28.972000000000001</v>
+        <v>28.971999999999998</v>
       </c>
       <c r="L230" s="72">
-        <v>96.148999999999972</v>
+        <v>96.149000000000001</v>
       </c>
       <c r="M230" s="72">
-        <v>90.424000000000007</v>
+        <v>90.423999999999992</v>
       </c>
       <c r="N230" s="72">
-        <v>125.12099999999998</v>
+        <v>125.121</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
@@ -16958,10 +16958,10 @@
         <v>70</v>
       </c>
       <c r="K231" s="72">
-        <v>41.082000000000001</v>
+        <v>41.082000000000008</v>
       </c>
       <c r="L231" s="72">
-        <v>118.57599999999999</v>
+        <v>118.57599999999998</v>
       </c>
       <c r="M231" s="72">
         <v>6.5449999999999999</v>
@@ -17002,13 +17002,13 @@
         <v>70</v>
       </c>
       <c r="K232" s="72">
-        <v>26.538000000000004</v>
+        <v>26.538</v>
       </c>
       <c r="L232" s="72">
-        <v>115.02500000000001</v>
+        <v>115.02500000000002</v>
       </c>
       <c r="M232" s="72">
-        <v>44.633000000000003</v>
+        <v>44.632999999999996</v>
       </c>
       <c r="N232" s="72">
         <v>141.56300000000002</v>
@@ -18382,10 +18382,10 @@
         <v>70</v>
       </c>
       <c r="K265" s="72">
-        <v>21.413</v>
+        <v>21.412999999999997</v>
       </c>
       <c r="L265" s="72">
-        <v>21.535999999999998</v>
+        <v>21.536000000000001</v>
       </c>
       <c r="M265" s="72">
         <v>16.254999999999999</v>
@@ -18432,7 +18432,7 @@
         <v>29.649000000000001</v>
       </c>
       <c r="M266" s="72">
-        <v>13.3</v>
+        <v>13.299999999999999</v>
       </c>
       <c r="N266" s="72">
         <v>45.774000000000001</v>
@@ -19897,13 +19897,13 @@
         <v>77.182000000000002</v>
       </c>
       <c r="L301" s="72">
-        <v>72.569999999999979</v>
+        <v>72.570000000000007</v>
       </c>
       <c r="M301" s="72">
-        <v>26.271000000000001</v>
+        <v>26.271000000000004</v>
       </c>
       <c r="N301" s="72">
-        <v>149.75199999999998</v>
+        <v>149.75200000000001</v>
       </c>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.25">
@@ -19941,13 +19941,13 @@
         <v>41.462000000000003</v>
       </c>
       <c r="L302" s="72">
-        <v>22.502999999999993</v>
+        <v>22.503</v>
       </c>
       <c r="M302" s="72">
-        <v>127.24900000000001</v>
+        <v>127.249</v>
       </c>
       <c r="N302" s="72">
-        <v>63.964999999999996</v>
+        <v>63.965000000000003</v>
       </c>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.25">
@@ -19982,10 +19982,10 @@
         <v>70</v>
       </c>
       <c r="K303" s="72">
-        <v>44.611999999999995</v>
+        <v>44.612000000000002</v>
       </c>
       <c r="L303" s="72">
-        <v>38.687000000000012</v>
+        <v>38.687000000000005</v>
       </c>
       <c r="M303" s="72">
         <v>25.277999999999999</v>
@@ -21412,7 +21412,7 @@
         <v>11.406999999999996</v>
       </c>
       <c r="M337" s="72">
-        <v>35.668000000000006</v>
+        <v>35.667999999999999</v>
       </c>
       <c r="N337" s="72">
         <v>94.323999999999998</v>
@@ -21453,13 +21453,13 @@
         <v>46.234000000000002</v>
       </c>
       <c r="L338" s="72">
-        <v>59.309999999999995</v>
+        <v>59.310000000000009</v>
       </c>
       <c r="M338" s="72">
         <v>35.013999999999996</v>
       </c>
       <c r="N338" s="72">
-        <v>105.544</v>
+        <v>105.54400000000001</v>
       </c>
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.25">
@@ -21538,10 +21538,10 @@
         <v>70</v>
       </c>
       <c r="K340" s="72">
-        <v>22.229999999999997</v>
+        <v>22.23</v>
       </c>
       <c r="L340" s="72">
-        <v>53.314000000000014</v>
+        <v>53.314000000000007</v>
       </c>
       <c r="M340" s="72">
         <v>39.880000000000003</v>
@@ -22713,13 +22713,13 @@
         <v>40.361000000000004</v>
       </c>
       <c r="L368" s="72">
-        <v>124.96499999999996</v>
+        <v>124.96499999999999</v>
       </c>
       <c r="M368" s="72">
-        <v>79.376999999999995</v>
+        <v>79.37700000000001</v>
       </c>
       <c r="N368" s="72">
-        <v>165.32599999999996</v>
+        <v>165.32599999999999</v>
       </c>
     </row>
     <row r="369" spans="1:14" x14ac:dyDescent="0.25">
@@ -22757,13 +22757,13 @@
         <v>14.105</v>
       </c>
       <c r="L369" s="72">
-        <v>63.964999999999989</v>
+        <v>63.965000000000003</v>
       </c>
       <c r="M369" s="72">
-        <v>101.36100000000002</v>
+        <v>101.361</v>
       </c>
       <c r="N369" s="72">
-        <v>78.069999999999993</v>
+        <v>78.070000000000007</v>
       </c>
     </row>
     <row r="370" spans="1:14" x14ac:dyDescent="0.25">
@@ -22801,13 +22801,13 @@
         <v>26.515999999999998</v>
       </c>
       <c r="L370" s="72">
-        <v>44.720999999999997</v>
+        <v>44.721000000000011</v>
       </c>
       <c r="M370" s="72">
         <v>33.349000000000004</v>
       </c>
       <c r="N370" s="72">
-        <v>71.236999999999995</v>
+        <v>71.237000000000009</v>
       </c>
     </row>
     <row r="371" spans="1:14" x14ac:dyDescent="0.25">
@@ -22845,7 +22845,7 @@
         <v>0</v>
       </c>
       <c r="M371" s="72">
-        <v>71.236999999999995</v>
+        <v>71.237000000000009</v>
       </c>
       <c r="N371" s="72">
         <v>0</v>
@@ -22918,16 +22918,16 @@
         <v>70</v>
       </c>
       <c r="K373" s="72">
-        <v>95.876999999999995</v>
+        <v>95.87700000000001</v>
       </c>
       <c r="L373" s="72">
-        <v>55.853000000000023</v>
+        <v>55.85299999999998</v>
       </c>
       <c r="M373" s="72">
-        <v>91.350000000000009</v>
+        <v>91.35</v>
       </c>
       <c r="N373" s="72">
-        <v>151.73000000000002</v>
+        <v>151.72999999999999</v>
       </c>
     </row>
     <row r="374" spans="1:14" x14ac:dyDescent="0.25">
@@ -24430,16 +24430,16 @@
         <v>70</v>
       </c>
       <c r="K409" s="72">
-        <v>29.894000000000005</v>
+        <v>29.894000000000002</v>
       </c>
       <c r="L409" s="72">
-        <v>29.268999999999991</v>
+        <v>29.269000000000002</v>
       </c>
       <c r="M409" s="72">
         <v>3.157</v>
       </c>
       <c r="N409" s="72">
-        <v>59.162999999999997</v>
+        <v>59.163000000000004</v>
       </c>
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.25">
@@ -24518,10 +24518,10 @@
         <v>70</v>
       </c>
       <c r="K411" s="72">
-        <v>86.311000000000007</v>
+        <v>86.310999999999993</v>
       </c>
       <c r="L411" s="72">
-        <v>124.92600000000002</v>
+        <v>124.92600000000003</v>
       </c>
       <c r="M411" s="72">
         <v>33.872</v>
@@ -24568,7 +24568,7 @@
         <v>13.986000000000004</v>
       </c>
       <c r="M412" s="72">
-        <v>197.25100000000003</v>
+        <v>197.25099999999998</v>
       </c>
       <c r="N412" s="72">
         <v>32.971000000000004</v>
@@ -25781,13 +25781,13 @@
         <v>34.17</v>
       </c>
       <c r="L441" s="72">
-        <v>124.06499999999998</v>
+        <v>124.06500000000001</v>
       </c>
       <c r="M441" s="72">
         <v>16.878999999999998</v>
       </c>
       <c r="N441" s="72">
-        <v>158.23499999999999</v>
+        <v>158.23500000000001</v>
       </c>
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.25">
@@ -25825,13 +25825,13 @@
         <v>98.138000000000005</v>
       </c>
       <c r="L442" s="72">
-        <v>104.11200000000002</v>
+        <v>104.11199999999999</v>
       </c>
       <c r="M442" s="72">
         <v>54.123000000000005</v>
       </c>
       <c r="N442" s="72">
-        <v>202.25000000000003</v>
+        <v>202.25</v>
       </c>
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.25">
@@ -25869,7 +25869,7 @@
         <v>0</v>
       </c>
       <c r="M443" s="72">
-        <v>202.25000000000003</v>
+        <v>202.25</v>
       </c>
       <c r="N443" s="72">
         <v>0</v>
@@ -25898,7 +25898,7 @@
         <v>70</v>
       </c>
       <c r="K444" s="72">
-        <v>83.503999999999991</v>
+        <v>83.504000000000005</v>
       </c>
       <c r="L444" s="72">
         <v>0</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="N444" s="72">
-        <v>83.503999999999991</v>
+        <v>83.504000000000005</v>
       </c>
     </row>
     <row r="445" spans="1:14" x14ac:dyDescent="0.25">
@@ -25942,10 +25942,10 @@
         <v>70</v>
       </c>
       <c r="K445" s="72">
-        <v>43.028999999999996</v>
+        <v>43.029000000000003</v>
       </c>
       <c r="L445" s="72">
-        <v>48.688000000000017</v>
+        <v>48.688000000000009</v>
       </c>
       <c r="M445" s="72">
         <v>34.816000000000003</v>
@@ -25992,7 +25992,7 @@
         <v>71.38900000000001</v>
       </c>
       <c r="M446" s="72">
-        <v>20.328000000000003</v>
+        <v>20.327999999999999</v>
       </c>
       <c r="N446" s="72">
         <v>101.971</v>
@@ -27454,7 +27454,7 @@
         <v>70</v>
       </c>
       <c r="K481" s="72">
-        <v>15.923999999999999</v>
+        <v>15.924000000000001</v>
       </c>
       <c r="L481" s="72">
         <v>75.217999999999989</v>
@@ -27501,13 +27501,13 @@
         <v>15.276</v>
       </c>
       <c r="L482" s="72">
-        <v>74.906000000000006</v>
+        <v>74.905999999999992</v>
       </c>
       <c r="M482" s="72">
         <v>16.235999999999997</v>
       </c>
       <c r="N482" s="72">
-        <v>90.182000000000002</v>
+        <v>90.181999999999988</v>
       </c>
     </row>
     <row r="483" spans="1:14" x14ac:dyDescent="0.25">
@@ -27548,7 +27548,7 @@
         <v>61.720000000000013</v>
       </c>
       <c r="M483" s="72">
-        <v>28.462</v>
+        <v>28.461999999999996</v>
       </c>
       <c r="N483" s="72">
         <v>120.41600000000001</v>
@@ -27592,7 +27592,7 @@
         <v>82.885000000000005</v>
       </c>
       <c r="M484" s="72">
-        <v>37.530999999999992</v>
+        <v>37.531000000000006</v>
       </c>
       <c r="N484" s="72">
         <v>95.691000000000003</v>
@@ -28714,16 +28714,16 @@
         <v>70</v>
       </c>
       <c r="K511" s="72">
-        <v>61.714000000000013</v>
+        <v>61.713999999999999</v>
       </c>
       <c r="L511" s="72">
-        <v>123.16600000000001</v>
+        <v>123.166</v>
       </c>
       <c r="M511" s="72">
-        <v>29.944000000000003</v>
+        <v>29.943999999999999</v>
       </c>
       <c r="N511" s="72">
-        <v>184.88000000000002</v>
+        <v>184.88</v>
       </c>
     </row>
     <row r="512" spans="1:14" x14ac:dyDescent="0.25">
@@ -28758,16 +28758,16 @@
         <v>70</v>
       </c>
       <c r="K512" s="72">
-        <v>57.222000000000008</v>
+        <v>57.221999999999994</v>
       </c>
       <c r="L512" s="72">
-        <v>66.387999999999991</v>
+        <v>66.388000000000019</v>
       </c>
       <c r="M512" s="72">
         <v>118.49199999999999</v>
       </c>
       <c r="N512" s="72">
-        <v>123.61</v>
+        <v>123.61000000000001</v>
       </c>
     </row>
     <row r="513" spans="1:14" x14ac:dyDescent="0.25">
@@ -28808,7 +28808,7 @@
         <v>104.756</v>
       </c>
       <c r="M513" s="72">
-        <v>18.853999999999999</v>
+        <v>18.854000000000003</v>
       </c>
       <c r="N513" s="72">
         <v>147.916</v>
@@ -30481,13 +30481,13 @@
         <v>22.366</v>
       </c>
       <c r="L553" s="72">
-        <v>92.440000000000012</v>
+        <v>92.44</v>
       </c>
       <c r="M553" s="72">
-        <v>48.189000000000007</v>
+        <v>48.188999999999993</v>
       </c>
       <c r="N553" s="72">
-        <v>114.80600000000001</v>
+        <v>114.806</v>
       </c>
     </row>
     <row r="554" spans="1:14" x14ac:dyDescent="0.25">
@@ -30566,13 +30566,13 @@
         <v>70</v>
       </c>
       <c r="K555" s="72">
-        <v>31.651000000000003</v>
+        <v>31.651</v>
       </c>
       <c r="L555" s="72">
-        <v>38.341999999999992</v>
+        <v>38.341999999999999</v>
       </c>
       <c r="M555" s="72">
-        <v>48.433</v>
+        <v>48.432999999999993</v>
       </c>
       <c r="N555" s="72">
         <v>69.992999999999995</v>
@@ -30613,13 +30613,13 @@
         <v>42.603999999999999</v>
       </c>
       <c r="L556" s="72">
-        <v>40.730999999999995</v>
+        <v>40.731000000000009</v>
       </c>
       <c r="M556" s="72">
-        <v>29.262000000000004</v>
+        <v>29.262</v>
       </c>
       <c r="N556" s="72">
-        <v>83.334999999999994</v>
+        <v>83.335000000000008</v>
       </c>
     </row>
     <row r="557" spans="1:14" x14ac:dyDescent="0.25">
@@ -30657,7 +30657,7 @@
         <v>0</v>
       </c>
       <c r="M557" s="72">
-        <v>83.334999999999994</v>
+        <v>83.335000000000008</v>
       </c>
       <c r="N557" s="72">
         <v>0</v>
@@ -31993,13 +31993,13 @@
         <v>103.65600000000001</v>
       </c>
       <c r="L589" s="72">
-        <v>21.155999999999977</v>
+        <v>21.156000000000006</v>
       </c>
       <c r="M589" s="72">
         <v>3.98</v>
       </c>
       <c r="N589" s="72">
-        <v>124.81199999999998</v>
+        <v>124.81200000000001</v>
       </c>
     </row>
     <row r="590" spans="1:14" x14ac:dyDescent="0.25">
@@ -32034,16 +32034,16 @@
         <v>70</v>
       </c>
       <c r="K590" s="72">
-        <v>100.414</v>
+        <v>100.41399999999999</v>
       </c>
       <c r="L590" s="72">
-        <v>102.67099999999998</v>
+        <v>102.67100000000002</v>
       </c>
       <c r="M590" s="72">
         <v>22.140999999999998</v>
       </c>
       <c r="N590" s="72">
-        <v>203.08499999999998</v>
+        <v>203.08500000000001</v>
       </c>
     </row>
     <row r="591" spans="1:14" x14ac:dyDescent="0.25">
@@ -32125,13 +32125,13 @@
         <v>45.256</v>
       </c>
       <c r="L592" s="72">
-        <v>70.836000000000013</v>
+        <v>70.835999999999984</v>
       </c>
       <c r="M592" s="72">
-        <v>104.20699999999999</v>
+        <v>104.20700000000001</v>
       </c>
       <c r="N592" s="72">
-        <v>116.09200000000001</v>
+        <v>116.09199999999998</v>
       </c>
     </row>
     <row r="593" spans="1:14" x14ac:dyDescent="0.25">
@@ -32169,7 +32169,7 @@
         <v>0</v>
       </c>
       <c r="M593" s="72">
-        <v>116.09200000000001</v>
+        <v>116.09199999999998</v>
       </c>
       <c r="N593" s="72">
         <v>0</v>
@@ -33297,13 +33297,13 @@
         <v>229.18299999999999</v>
       </c>
       <c r="L620" s="72">
-        <v>99.149000000000058</v>
+        <v>99.149000000000001</v>
       </c>
       <c r="M620" s="72">
         <v>16.734999999999999</v>
       </c>
       <c r="N620" s="72">
-        <v>328.33200000000005</v>
+        <v>328.33199999999999</v>
       </c>
     </row>
     <row r="621" spans="1:14" x14ac:dyDescent="0.25">
@@ -33385,13 +33385,13 @@
         <v>19.161999999999999</v>
       </c>
       <c r="L622" s="72">
-        <v>184.71599999999998</v>
+        <v>184.71600000000001</v>
       </c>
       <c r="M622" s="72">
-        <v>118.56199999999998</v>
+        <v>118.56200000000001</v>
       </c>
       <c r="N622" s="72">
-        <v>203.87799999999999</v>
+        <v>203.87800000000001</v>
       </c>
     </row>
     <row r="623" spans="1:14" x14ac:dyDescent="0.25">
@@ -33429,7 +33429,7 @@
         <v>0</v>
       </c>
       <c r="M623" s="72">
-        <v>203.87799999999999</v>
+        <v>203.87800000000001</v>
       </c>
       <c r="N623" s="72">
         <v>0</v>
@@ -33502,10 +33502,10 @@
         <v>70</v>
       </c>
       <c r="K625" s="72">
-        <v>59.531000000000006</v>
+        <v>59.530999999999999</v>
       </c>
       <c r="L625" s="72">
-        <v>17.962999999999994</v>
+        <v>17.963000000000001</v>
       </c>
       <c r="M625" s="72">
         <v>1.147</v>
@@ -35017,13 +35017,13 @@
         <v>28.811</v>
       </c>
       <c r="L661" s="72">
-        <v>150.202</v>
+        <v>150.20200000000003</v>
       </c>
       <c r="M661" s="72">
         <v>13.575000000000001</v>
       </c>
       <c r="N661" s="72">
-        <v>179.01300000000001</v>
+        <v>179.01300000000003</v>
       </c>
     </row>
     <row r="662" spans="1:14" x14ac:dyDescent="0.25">
@@ -35105,13 +35105,13 @@
         <v>17.624000000000002</v>
       </c>
       <c r="L663" s="72">
-        <v>158.66199999999998</v>
+        <v>158.66200000000001</v>
       </c>
       <c r="M663" s="72">
         <v>36.658000000000001</v>
       </c>
       <c r="N663" s="72">
-        <v>176.28599999999997</v>
+        <v>176.286</v>
       </c>
     </row>
     <row r="664" spans="1:14" x14ac:dyDescent="0.25">
@@ -35146,16 +35146,16 @@
         <v>70</v>
       </c>
       <c r="K664" s="72">
-        <v>26.464999999999996</v>
+        <v>26.465</v>
       </c>
       <c r="L664" s="72">
-        <v>30.353999999999999</v>
+        <v>30.354000000000003</v>
       </c>
       <c r="M664" s="72">
         <v>145.93200000000002</v>
       </c>
       <c r="N664" s="72">
-        <v>56.818999999999996</v>
+        <v>56.819000000000003</v>
       </c>
     </row>
     <row r="665" spans="1:14" x14ac:dyDescent="0.25">
@@ -35193,7 +35193,7 @@
         <v>0</v>
       </c>
       <c r="M665" s="72">
-        <v>56.818999999999996</v>
+        <v>56.819000000000003</v>
       </c>
       <c r="N665" s="72">
         <v>0</v>
@@ -36321,13 +36321,13 @@
         <v>3.15</v>
       </c>
       <c r="L692" s="72">
-        <v>87.924999999999983</v>
+        <v>87.924999999999997</v>
       </c>
       <c r="M692" s="72">
         <v>66.015000000000001</v>
       </c>
       <c r="N692" s="72">
-        <v>91.074999999999989</v>
+        <v>91.075000000000003</v>
       </c>
     </row>
     <row r="693" spans="1:14" x14ac:dyDescent="0.25">
@@ -36365,13 +36365,13 @@
         <v>3.74</v>
       </c>
       <c r="L693" s="72">
-        <v>84.194999999999993</v>
+        <v>84.195000000000007</v>
       </c>
       <c r="M693" s="72">
         <v>6.88</v>
       </c>
       <c r="N693" s="72">
-        <v>87.934999999999988</v>
+        <v>87.935000000000002</v>
       </c>
     </row>
     <row r="694" spans="1:14" x14ac:dyDescent="0.25">
@@ -36412,7 +36412,7 @@
         <v>55.86</v>
       </c>
       <c r="M694" s="72">
-        <v>32.074999999999996</v>
+        <v>32.075000000000003</v>
       </c>
       <c r="N694" s="72">
         <v>66.216999999999999</v>
@@ -36482,7 +36482,7 @@
         <v>70</v>
       </c>
       <c r="K696" s="72">
-        <v>134.58700000000002</v>
+        <v>134.58699999999999</v>
       </c>
       <c r="L696" s="72">
         <v>0</v>
@@ -36491,7 +36491,7 @@
         <v>0</v>
       </c>
       <c r="N696" s="72">
-        <v>134.58700000000002</v>
+        <v>134.58699999999999</v>
       </c>
     </row>
     <row r="697" spans="1:14" x14ac:dyDescent="0.25">
@@ -36532,7 +36532,7 @@
         <v>54.576999999999984</v>
       </c>
       <c r="M697" s="72">
-        <v>80.010000000000005</v>
+        <v>80.010000000000019</v>
       </c>
       <c r="N697" s="72">
         <v>124.61099999999999</v>
@@ -37789,13 +37789,13 @@
         <v>246.63100000000003</v>
       </c>
       <c r="L727" s="72">
-        <v>69.858999999999924</v>
+        <v>69.85899999999998</v>
       </c>
       <c r="M727" s="72">
         <v>32.268000000000001</v>
       </c>
       <c r="N727" s="72">
-        <v>316.48999999999995</v>
+        <v>316.49</v>
       </c>
     </row>
     <row r="728" spans="1:14" x14ac:dyDescent="0.25">
@@ -37874,16 +37874,16 @@
         <v>70</v>
       </c>
       <c r="K729" s="72">
-        <v>50.32</v>
+        <v>50.319999999999993</v>
       </c>
       <c r="L729" s="72">
-        <v>118.96299999999997</v>
+        <v>118.96300000000002</v>
       </c>
       <c r="M729" s="72">
         <v>25.198</v>
       </c>
       <c r="N729" s="72">
-        <v>169.28299999999996</v>
+        <v>169.28300000000002</v>
       </c>
     </row>
     <row r="730" spans="1:14" x14ac:dyDescent="0.25">
@@ -37921,13 +37921,13 @@
         <v>42.287000000000006</v>
       </c>
       <c r="L730" s="72">
-        <v>75.307999999999993</v>
+        <v>75.308000000000007</v>
       </c>
       <c r="M730" s="72">
-        <v>93.975000000000009</v>
+        <v>93.974999999999994</v>
       </c>
       <c r="N730" s="72">
-        <v>117.595</v>
+        <v>117.59500000000001</v>
       </c>
     </row>
     <row r="731" spans="1:14" x14ac:dyDescent="0.25">
@@ -37965,7 +37965,7 @@
         <v>0</v>
       </c>
       <c r="M731" s="72">
-        <v>117.595</v>
+        <v>117.59500000000001</v>
       </c>
       <c r="N731" s="72">
         <v>0</v>
@@ -37994,7 +37994,7 @@
         <v>70</v>
       </c>
       <c r="K732" s="72">
-        <v>83.874000000000009</v>
+        <v>83.873999999999995</v>
       </c>
       <c r="L732" s="72">
         <v>0</v>
@@ -38003,7 +38003,7 @@
         <v>0</v>
       </c>
       <c r="N732" s="72">
-        <v>83.874000000000009</v>
+        <v>83.873999999999995</v>
       </c>
     </row>
     <row r="733" spans="1:14" x14ac:dyDescent="0.25">
@@ -39550,10 +39550,10 @@
         <v>70</v>
       </c>
       <c r="K769" s="72">
-        <v>68.218999999999994</v>
+        <v>68.219000000000008</v>
       </c>
       <c r="L769" s="72">
-        <v>65.992000000000019</v>
+        <v>65.992000000000004</v>
       </c>
       <c r="M769" s="72">
         <v>30.859000000000002</v>
@@ -39594,16 +39594,16 @@
         <v>70</v>
       </c>
       <c r="K770" s="72">
-        <v>58.085000000000008</v>
+        <v>58.085000000000001</v>
       </c>
       <c r="L770" s="72">
-        <v>110.67399999999998</v>
+        <v>110.67400000000001</v>
       </c>
       <c r="M770" s="72">
         <v>23.536999999999999</v>
       </c>
       <c r="N770" s="72">
-        <v>168.75899999999999</v>
+        <v>168.75900000000001</v>
       </c>
     </row>
     <row r="771" spans="1:14" x14ac:dyDescent="0.25">
@@ -39641,13 +39641,13 @@
         <v>37.076000000000001</v>
       </c>
       <c r="L771" s="72">
-        <v>47.170999999999999</v>
+        <v>47.170999999999985</v>
       </c>
       <c r="M771" s="72">
         <v>121.58799999999999</v>
       </c>
       <c r="N771" s="72">
-        <v>84.247</v>
+        <v>84.246999999999986</v>
       </c>
     </row>
     <row r="772" spans="1:14" x14ac:dyDescent="0.25">
@@ -39688,7 +39688,7 @@
         <v>23.835999999999999</v>
       </c>
       <c r="M772" s="72">
-        <v>60.410999999999987</v>
+        <v>60.411000000000008</v>
       </c>
       <c r="N772" s="72">
         <v>53.704999999999998</v>
@@ -41062,16 +41062,16 @@
         <v>70</v>
       </c>
       <c r="K805" s="72">
-        <v>53.802999999999997</v>
+        <v>53.803000000000004</v>
       </c>
       <c r="L805" s="72">
-        <v>41.947000000000003</v>
+        <v>41.94700000000001</v>
       </c>
       <c r="M805" s="72">
         <v>19.115000000000002</v>
       </c>
       <c r="N805" s="72">
-        <v>95.75</v>
+        <v>95.750000000000014</v>
       </c>
     </row>
     <row r="806" spans="1:14" x14ac:dyDescent="0.25">
@@ -41106,10 +41106,10 @@
         <v>70</v>
       </c>
       <c r="K806" s="72">
-        <v>77.020999999999987</v>
+        <v>77.021000000000001</v>
       </c>
       <c r="L806" s="72">
-        <v>76.553000000000026</v>
+        <v>76.553000000000011</v>
       </c>
       <c r="M806" s="72">
         <v>19.197000000000003</v>
@@ -41150,13 +41150,13 @@
         <v>70</v>
       </c>
       <c r="K807" s="72">
-        <v>72.957000000000008</v>
+        <v>72.956999999999994</v>
       </c>
       <c r="L807" s="72">
         <v>129.41199999999998</v>
       </c>
       <c r="M807" s="72">
-        <v>24.161999999999999</v>
+        <v>24.162000000000003</v>
       </c>
       <c r="N807" s="72">
         <v>202.36899999999997</v>
@@ -42577,13 +42577,13 @@
         <v>99.659000000000006</v>
       </c>
       <c r="L841" s="72">
-        <v>77.517000000000039</v>
+        <v>77.516999999999982</v>
       </c>
       <c r="M841" s="72">
         <v>26.78</v>
       </c>
       <c r="N841" s="72">
-        <v>177.17600000000004</v>
+        <v>177.17599999999999</v>
       </c>
     </row>
     <row r="842" spans="1:14" x14ac:dyDescent="0.25">
@@ -42621,13 +42621,13 @@
         <v>95.91500000000002</v>
       </c>
       <c r="L842" s="72">
-        <v>140.572</v>
+        <v>140.57199999999997</v>
       </c>
       <c r="M842" s="72">
         <v>36.603999999999999</v>
       </c>
       <c r="N842" s="72">
-        <v>236.48700000000002</v>
+        <v>236.48699999999999</v>
       </c>
     </row>
     <row r="843" spans="1:14" x14ac:dyDescent="0.25">
@@ -44042,7 +44042,7 @@
         <v>70</v>
       </c>
       <c r="K876" s="72">
-        <v>78.872000000000014</v>
+        <v>78.872</v>
       </c>
       <c r="L876" s="72">
         <v>0</v>
@@ -44051,7 +44051,7 @@
         <v>0</v>
       </c>
       <c r="N876" s="72">
-        <v>78.872000000000014</v>
+        <v>78.872</v>
       </c>
     </row>
     <row r="877" spans="1:14" x14ac:dyDescent="0.25">
@@ -44089,13 +44089,13 @@
         <v>164.52800000000002</v>
       </c>
       <c r="L877" s="72">
-        <v>50.716000000000008</v>
+        <v>50.71599999999998</v>
       </c>
       <c r="M877" s="72">
         <v>28.155999999999999</v>
       </c>
       <c r="N877" s="72">
-        <v>215.24400000000003</v>
+        <v>215.244</v>
       </c>
     </row>
     <row r="878" spans="1:14" x14ac:dyDescent="0.25">
@@ -44177,13 +44177,13 @@
         <v>8.1310000000000002</v>
       </c>
       <c r="L879" s="72">
-        <v>46.188999999999993</v>
+        <v>46.189</v>
       </c>
       <c r="M879" s="72">
         <v>209.76</v>
       </c>
       <c r="N879" s="72">
-        <v>54.319999999999993</v>
+        <v>54.32</v>
       </c>
     </row>
     <row r="880" spans="1:14" x14ac:dyDescent="0.25">
@@ -45601,13 +45601,13 @@
         <v>31.213000000000001</v>
       </c>
       <c r="L913" s="72">
-        <v>84.153999999999996</v>
+        <v>84.154000000000025</v>
       </c>
       <c r="M913" s="72">
         <v>2.8340000000000001</v>
       </c>
       <c r="N913" s="72">
-        <v>115.36699999999999</v>
+        <v>115.36700000000002</v>
       </c>
     </row>
     <row r="914" spans="1:14" x14ac:dyDescent="0.25">
@@ -45645,13 +45645,13 @@
         <v>37.979999999999997</v>
       </c>
       <c r="L914" s="72">
-        <v>47.281000000000013</v>
+        <v>47.280999999999999</v>
       </c>
       <c r="M914" s="72">
         <v>68.085999999999999</v>
       </c>
       <c r="N914" s="72">
-        <v>85.26100000000001</v>
+        <v>85.260999999999996</v>
       </c>
     </row>
     <row r="915" spans="1:14" x14ac:dyDescent="0.25">
@@ -49565,13 +49565,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="72">
-        <v>231.46399999999988</v>
+        <v>231.46400000000008</v>
       </c>
       <c r="H6" s="72">
         <v>210</v>
       </c>
       <c r="I6" s="76">
-        <v>1.1022095238095233</v>
+        <v>1.1022095238095242</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -49623,13 +49623,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="72">
-        <v>51.484000000000009</v>
+        <v>51.484000000000016</v>
       </c>
       <c r="H8" s="72">
         <v>70</v>
       </c>
       <c r="I8" s="76">
-        <v>0.73548571428571441</v>
+        <v>0.73548571428571452</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -49652,13 +49652,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="72">
-        <v>23.502250000000007</v>
+        <v>23.502250000000004</v>
       </c>
       <c r="H9" s="72">
         <v>70</v>
       </c>
       <c r="I9" s="76">
-        <v>0.33574642857142867</v>
+        <v>0.33574642857142861</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -49710,13 +49710,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="72">
-        <v>54.594499999999989</v>
+        <v>54.594500000000004</v>
       </c>
       <c r="H11" s="72">
         <v>140</v>
       </c>
       <c r="I11" s="76">
-        <v>0.38996071428571422</v>
+        <v>0.38996071428571433</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -49739,13 +49739,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="72">
-        <v>236.99600000000001</v>
+        <v>236.99600000000007</v>
       </c>
       <c r="H12" s="72">
         <v>210</v>
       </c>
       <c r="I12" s="76">
-        <v>1.128552380952381</v>
+        <v>1.1285523809523812</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -49797,13 +49797,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="72">
-        <v>47.545249999999989</v>
+        <v>47.54525000000001</v>
       </c>
       <c r="H14" s="72">
         <v>70</v>
       </c>
       <c r="I14" s="76">
-        <v>0.67921785714285698</v>
+        <v>0.67921785714285732</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -49826,13 +49826,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="72">
-        <v>40.350999999999999</v>
+        <v>40.351000000000006</v>
       </c>
       <c r="H15" s="72">
         <v>70</v>
       </c>
       <c r="I15" s="76">
-        <v>0.57644285714285715</v>
+        <v>0.57644285714285726</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -49855,13 +49855,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="72">
-        <v>75.826750000000018</v>
+        <v>75.826749999999976</v>
       </c>
       <c r="H16" s="72">
         <v>70</v>
       </c>
       <c r="I16" s="76">
-        <v>1.0832392857142861</v>
+        <v>1.0832392857142854</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -49913,13 +49913,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="72">
-        <v>40.900000000000013</v>
+        <v>40.900000000000006</v>
       </c>
       <c r="H18" s="72">
         <v>70</v>
       </c>
       <c r="I18" s="76">
-        <v>0.58428571428571452</v>
+        <v>0.58428571428571441</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -49942,13 +49942,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="72">
-        <v>50.378</v>
+        <v>50.378000000000014</v>
       </c>
       <c r="H19" s="72">
         <v>70</v>
       </c>
       <c r="I19" s="76">
-        <v>0.71968571428571426</v>
+        <v>0.71968571428571448</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -49971,13 +49971,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="72">
-        <v>62.85575</v>
+        <v>62.855750000000008</v>
       </c>
       <c r="H20" s="72">
         <v>70</v>
       </c>
       <c r="I20" s="76">
-        <v>0.89793928571428572</v>
+        <v>0.89793928571428583</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -50000,13 +50000,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="72">
-        <v>33.444499999999991</v>
+        <v>33.444499999999998</v>
       </c>
       <c r="H21" s="72">
         <v>70</v>
       </c>
       <c r="I21" s="76">
-        <v>0.47777857142857127</v>
+        <v>0.47777857142857139</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -50116,13 +50116,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="72">
-        <v>26.406749999999995</v>
+        <v>26.406750000000002</v>
       </c>
       <c r="H25" s="72">
         <v>70</v>
       </c>
       <c r="I25" s="76">
-        <v>0.37723928571428567</v>
+        <v>0.37723928571428572</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -50145,13 +50145,13 @@
         <v>0</v>
       </c>
       <c r="G26" s="72">
-        <v>57.035499999999999</v>
+        <v>57.035500000000006</v>
       </c>
       <c r="H26" s="72">
         <v>70</v>
       </c>
       <c r="I26" s="76">
-        <v>0.8147928571428571</v>
+        <v>0.81479285714285721</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -50174,13 +50174,13 @@
         <v>0</v>
       </c>
       <c r="G27" s="72">
-        <v>28.754500000000004</v>
+        <v>28.754500000000007</v>
       </c>
       <c r="H27" s="72">
         <v>70</v>
       </c>
       <c r="I27" s="76">
-        <v>0.41077857142857149</v>
+        <v>0.41077857142857155</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -50203,13 +50203,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="72">
-        <v>104.17775</v>
+        <v>104.17775000000003</v>
       </c>
       <c r="H28" s="72">
         <v>140</v>
       </c>
       <c r="I28" s="76">
-        <v>0.7441267857142857</v>
+        <v>0.74412678571428592</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -50261,13 +50261,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="72">
-        <v>269.15899999999988</v>
+        <v>269.15899999999999</v>
       </c>
       <c r="H30" s="72">
         <v>280</v>
       </c>
       <c r="I30" s="76">
-        <v>0.96128214285714242</v>
+        <v>0.96128214285714286</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -50290,13 +50290,13 @@
         <v>0</v>
       </c>
       <c r="G31" s="72">
-        <v>107.91599999999998</v>
+        <v>107.91599999999997</v>
       </c>
       <c r="H31" s="72">
         <v>280</v>
       </c>
       <c r="I31" s="76">
-        <v>0.38541428571428565</v>
+        <v>0.3854142857142856</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -50319,13 +50319,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="72">
-        <v>118.99925000000007</v>
+        <v>118.99925000000006</v>
       </c>
       <c r="H32" s="72">
         <v>140</v>
       </c>
       <c r="I32" s="76">
-        <v>0.84999464285714343</v>
+        <v>0.84999464285714332</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -50348,13 +50348,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="72">
-        <v>131.29400000000001</v>
+        <v>131.29399999999998</v>
       </c>
       <c r="H33" s="72">
         <v>140</v>
       </c>
       <c r="I33" s="76">
-        <v>0.93781428571428582</v>
+        <v>0.9378142857142856</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -50464,13 +50464,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="72">
-        <v>80.285750000000021</v>
+        <v>80.285750000000007</v>
       </c>
       <c r="H37" s="72">
         <v>70</v>
       </c>
       <c r="I37" s="76">
-        <v>1.1469392857142859</v>
+        <v>1.1469392857142857</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -50493,13 +50493,13 @@
         <v>0</v>
       </c>
       <c r="G38" s="72">
-        <v>142.41875000000005</v>
+        <v>142.41874999999993</v>
       </c>
       <c r="H38" s="72">
         <v>140</v>
       </c>
       <c r="I38" s="76">
-        <v>1.0172767857142861</v>
+        <v>1.0172767857142853</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -50522,13 +50522,13 @@
         <v>0</v>
       </c>
       <c r="G39" s="72">
-        <v>68.644750000000002</v>
+        <v>68.644749999999988</v>
       </c>
       <c r="H39" s="72">
         <v>140</v>
       </c>
       <c r="I39" s="76">
-        <v>0.49031964285714286</v>
+        <v>0.49031964285714275</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -50725,13 +50725,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="72">
-        <v>423.88049999999981</v>
+        <v>423.88049999999993</v>
       </c>
       <c r="H46" s="72">
         <v>350</v>
       </c>
       <c r="I46" s="76">
-        <v>1.2110871428571424</v>
+        <v>1.2110871428571426</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -50754,13 +50754,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="72">
-        <v>208.93100000000007</v>
+        <v>208.93100000000004</v>
       </c>
       <c r="H47" s="72">
         <v>350</v>
       </c>
       <c r="I47" s="76">
-        <v>0.59694571428571452</v>
+        <v>0.59694571428571441</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -50783,13 +50783,13 @@
         <v>0</v>
       </c>
       <c r="G48" s="72">
-        <v>118.77674999999996</v>
+        <v>118.77675000000002</v>
       </c>
       <c r="H48" s="72">
         <v>140</v>
       </c>
       <c r="I48" s="76">
-        <v>0.84840535714285692</v>
+        <v>0.84840535714285725</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -50812,13 +50812,13 @@
         <v>0</v>
       </c>
       <c r="G49" s="72">
-        <v>68.798249999999982</v>
+        <v>68.79825000000001</v>
       </c>
       <c r="H49" s="72">
         <v>140</v>
       </c>
       <c r="I49" s="76">
-        <v>0.4914160714285713</v>
+        <v>0.49141607142857152</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -50899,13 +50899,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="72">
-        <v>206.10674999999998</v>
+        <v>206.10675000000009</v>
       </c>
       <c r="H52" s="72">
         <v>210</v>
       </c>
       <c r="I52" s="76">
-        <v>0.98146071428571413</v>
+        <v>0.98146071428571469</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -50928,13 +50928,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="72">
-        <v>299.08850000000001</v>
+        <v>299.08850000000018</v>
       </c>
       <c r="H53" s="72">
         <v>210</v>
       </c>
       <c r="I53" s="76">
-        <v>1.4242309523809524</v>
+        <v>1.4242309523809533</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -50957,7 +50957,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="72">
-        <v>37.03125</v>
+        <v>37.031249999999993</v>
       </c>
       <c r="H54" s="72">
         <v>70</v>
@@ -51044,13 +51044,13 @@
         <v>0</v>
       </c>
       <c r="G57" s="72">
-        <v>119.02899999999995</v>
+        <v>119.02899999999997</v>
       </c>
       <c r="H57" s="72">
         <v>140</v>
       </c>
       <c r="I57" s="76">
-        <v>0.85020714285714249</v>
+        <v>0.85020714285714261</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -51073,13 +51073,13 @@
         <v>0</v>
       </c>
       <c r="G58" s="72">
-        <v>23.776500000000006</v>
+        <v>23.776499999999995</v>
       </c>
       <c r="H58" s="72">
         <v>70</v>
       </c>
       <c r="I58" s="76">
-        <v>0.33966428571428581</v>
+        <v>0.33966428571428564</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -51102,13 +51102,13 @@
         <v>0</v>
       </c>
       <c r="G59" s="72">
-        <v>16.381249999999998</v>
+        <v>16.381250000000001</v>
       </c>
       <c r="H59" s="72">
         <v>70</v>
       </c>
       <c r="I59" s="76">
-        <v>0.23401785714285711</v>
+        <v>0.23401785714285717</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -51218,13 +51218,13 @@
         <v>0</v>
       </c>
       <c r="G63" s="72">
-        <v>54.726249999999993</v>
+        <v>54.726250000000036</v>
       </c>
       <c r="H63" s="72">
         <v>70</v>
       </c>
       <c r="I63" s="76">
-        <v>0.78180357142857138</v>
+        <v>0.78180357142857193</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -51276,13 +51276,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="72">
-        <v>42.438499999999998</v>
+        <v>42.438499999999991</v>
       </c>
       <c r="H65" s="72">
         <v>140</v>
       </c>
       <c r="I65" s="76">
-        <v>0.30313214285714285</v>
+        <v>0.30313214285714279</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -51305,13 +51305,13 @@
         <v>0</v>
       </c>
       <c r="G66" s="72">
-        <v>73.189999999999984</v>
+        <v>73.19</v>
       </c>
       <c r="H66" s="72">
         <v>70</v>
       </c>
       <c r="I66" s="76">
-        <v>1.0455714285714284</v>
+        <v>1.0455714285714286</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -51363,13 +51363,13 @@
         <v>0</v>
       </c>
       <c r="G68" s="72">
-        <v>145.23250000000004</v>
+        <v>145.23250000000002</v>
       </c>
       <c r="H68" s="72">
         <v>140</v>
       </c>
       <c r="I68" s="76">
-        <v>1.0373750000000004</v>
+        <v>1.0373750000000002</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -51421,13 +51421,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="72">
-        <v>61.569999999999993</v>
+        <v>61.57</v>
       </c>
       <c r="H70" s="72">
         <v>70</v>
       </c>
       <c r="I70" s="76">
-        <v>0.87957142857142845</v>
+        <v>0.87957142857142856</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -51508,7 +51508,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="72">
-        <v>77.369500000000002</v>
+        <v>77.369500000000016</v>
       </c>
       <c r="H73" s="72">
         <v>70</v>
@@ -51537,13 +51537,13 @@
         <v>0</v>
       </c>
       <c r="G74" s="72">
-        <v>38.841000000000015</v>
+        <v>38.841000000000008</v>
       </c>
       <c r="H74" s="72">
         <v>70</v>
       </c>
       <c r="I74" s="76">
-        <v>0.55487142857142879</v>
+        <v>0.55487142857142868</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -51566,13 +51566,13 @@
         <v>0</v>
       </c>
       <c r="G75" s="72">
-        <v>40.22549999999999</v>
+        <v>40.225499999999997</v>
       </c>
       <c r="H75" s="72">
         <v>70</v>
       </c>
       <c r="I75" s="76">
-        <v>0.57464999999999988</v>
+        <v>0.57464999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -51595,7 +51595,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="72">
-        <v>90.529250000000019</v>
+        <v>90.529250000000005</v>
       </c>
       <c r="H76" s="72">
         <v>70</v>
@@ -51653,13 +51653,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="72">
-        <v>40.212250000000004</v>
+        <v>40.212249999999997</v>
       </c>
       <c r="H78" s="72">
         <v>70</v>
       </c>
       <c r="I78" s="76">
-        <v>0.57446071428571432</v>
+        <v>0.57446071428571421</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -51682,13 +51682,13 @@
         <v>0</v>
       </c>
       <c r="G79" s="72">
-        <v>66.397250000000014</v>
+        <v>66.39725</v>
       </c>
       <c r="H79" s="72">
         <v>70</v>
       </c>
       <c r="I79" s="76">
-        <v>0.94853214285714305</v>
+        <v>0.94853214285714282</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -51711,13 +51711,13 @@
         <v>0</v>
       </c>
       <c r="G80" s="72">
-        <v>123.34800000000003</v>
+        <v>123.34799999999998</v>
       </c>
       <c r="H80" s="72">
         <v>70</v>
       </c>
       <c r="I80" s="76">
-        <v>1.7621142857142862</v>
+        <v>1.7621142857142855</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -51740,13 +51740,13 @@
         <v>0</v>
       </c>
       <c r="G81" s="72">
-        <v>75.503750000000039</v>
+        <v>75.503749999999997</v>
       </c>
       <c r="H81" s="72">
         <v>70</v>
       </c>
       <c r="I81" s="76">
-        <v>1.0786250000000006</v>
+        <v>1.0786249999999999</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -51769,7 +51769,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="72">
-        <v>111.50025000000001</v>
+        <v>111.50024999999999</v>
       </c>
       <c r="H82" s="72">
         <v>70</v>
@@ -51798,13 +51798,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="72">
-        <v>48.376000000000026</v>
+        <v>48.376000000000005</v>
       </c>
       <c r="H83" s="72">
         <v>70</v>
       </c>
       <c r="I83" s="76">
-        <v>0.69108571428571464</v>
+        <v>0.6910857142857143</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -51827,13 +51827,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="72">
-        <v>108.05325000000005</v>
+        <v>108.05325000000001</v>
       </c>
       <c r="H84" s="72">
         <v>140</v>
       </c>
       <c r="I84" s="76">
-        <v>0.77180892857142891</v>
+        <v>0.77180892857142858</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
